--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Excellent Teacher" sheetId="3" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +143,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +167,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8C52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,19 +213,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +242,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8C52"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,19 +523,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -502,78 +555,79 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
@@ -597,8 +651,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
@@ -622,8 +677,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
@@ -669,8 +725,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
@@ -716,8 +773,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1">
@@ -763,8 +821,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1">
@@ -802,8 +861,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1">
@@ -841,8 +901,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1">
@@ -878,8 +939,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1">
@@ -915,8 +977,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1">
@@ -952,8 +1015,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1">
@@ -989,11 +1053,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
@@ -1017,8 +1081,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -1042,8 +1107,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -1089,8 +1155,9 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
@@ -1136,8 +1203,9 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
@@ -1183,8 +1251,9 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
@@ -1222,8 +1291,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
@@ -1261,8 +1331,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
@@ -1298,8 +1369,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
@@ -1335,8 +1407,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
@@ -1372,8 +1445,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
@@ -1409,11 +1483,11 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="2"/>
@@ -1437,8 +1511,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1">
@@ -1462,8 +1537,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="1">
@@ -1509,8 +1585,9 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1">
@@ -1556,8 +1633,9 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1">
@@ -1603,8 +1681,9 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1">
@@ -1642,8 +1721,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="1">
@@ -1681,8 +1761,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1">
@@ -1718,8 +1799,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="1">
@@ -1755,8 +1837,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="1">
@@ -1792,8 +1875,9 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="1">
@@ -1829,11 +1913,11 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2"/>
@@ -1857,8 +1941,9 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1">
@@ -1882,8 +1967,9 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1">
@@ -1929,8 +2015,9 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="1">
@@ -1976,8 +2063,9 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1">
@@ -2023,8 +2111,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="1">
@@ -2062,8 +2151,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="1">
@@ -2101,8 +2191,9 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="1">
@@ -2138,8 +2229,9 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1">
@@ -2175,8 +2267,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="1">
@@ -2212,8 +2305,9 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="1">
@@ -2249,31 +2343,31 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="2"/>
@@ -2300,20 +2394,21 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <f>C5/5*1.5</f>
+        <f t="shared" ref="C50:E59" si="0">C5/5*1.5</f>
         <v>1620</v>
       </c>
       <c r="D50" s="1">
-        <f>D5/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1620</v>
       </c>
       <c r="E50" s="1">
-        <f>E5/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1620</v>
       </c>
       <c r="F50" s="2"/>
@@ -2328,466 +2423,475 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="1">
-        <f>C6/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="D51" s="1">
-        <f>D6/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="E51" s="1">
-        <f>E6/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="F51" s="1">
-        <f>F6/5*1.5</f>
+        <f t="shared" ref="F51:P51" si="1">F6/5*1.5</f>
         <v>1260</v>
       </c>
       <c r="G51" s="1">
-        <f>G6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>1260</v>
       </c>
       <c r="H51" s="1">
-        <f>H6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>1260</v>
       </c>
       <c r="I51" s="1">
-        <f>I6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>1260</v>
       </c>
       <c r="J51" s="1">
-        <f>J6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="K51" s="1">
-        <f>K6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="L51" s="1">
-        <f>L6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="M51" s="1">
-        <f>M6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="N51" s="1">
-        <f>N6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="O51" s="1">
-        <f>O6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="P51" s="1">
-        <f>P6/5*1.5</f>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="1">
-        <f>C7/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="D52" s="1">
-        <f>D7/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="E52" s="1">
-        <f>E7/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1260</v>
       </c>
       <c r="F52" s="1">
-        <f>F7/5*1.5</f>
+        <f t="shared" ref="F52:P52" si="2">F7/5*1.5</f>
         <v>1260</v>
       </c>
       <c r="G52" s="1">
-        <f>G7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
       <c r="H52" s="1">
-        <f>H7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
       <c r="I52" s="1">
-        <f>I7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
       <c r="J52" s="1">
-        <f>J7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="K52" s="1">
-        <f>K7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="L52" s="1">
-        <f>L7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="M52" s="1">
-        <f>M7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="N52" s="1">
-        <f>N7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="O52" s="1">
-        <f>O7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="P52" s="1">
-        <f>P7/5*1.5</f>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="1">
-        <f>C8/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="D53" s="1">
-        <f>D8/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="E53" s="1">
-        <f>E8/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="F53" s="1">
-        <f>F8/5*1.5</f>
+        <f t="shared" ref="F53:P53" si="3">F8/5*1.5</f>
         <v>1080</v>
       </c>
       <c r="G53" s="1">
-        <f>G8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="H53" s="1">
-        <f>H8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="I53" s="1">
-        <f>I8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="J53" s="1">
-        <f>J8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>810</v>
       </c>
       <c r="K53" s="1">
-        <f>K8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>810</v>
       </c>
       <c r="L53" s="1">
-        <f>L8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="M53" s="1">
-        <f>M8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="N53" s="1">
-        <f>N8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="O53" s="1">
-        <f>O8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="P53" s="1">
-        <f>P8/5*1.5</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="1">
-        <f>C9/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="D54" s="1">
-        <f>D9/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="E54" s="1">
-        <f>E9/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="F54" s="1">
-        <f>F9/5*1.5</f>
+        <f t="shared" ref="F54:H55" si="4">F9/5*1.5</f>
         <v>1080</v>
       </c>
       <c r="G54" s="1">
-        <f>G9/5*1.5</f>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="H54" s="1">
-        <f>H9/5*1.5</f>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
-        <f>K9/5*1.5</f>
+        <f t="shared" ref="K54:N59" si="5">K9/5*1.5</f>
         <v>810</v>
       </c>
       <c r="L54" s="1">
-        <f>L9/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M54" s="1">
-        <f>M9/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N54" s="1">
-        <f>N9/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="1">
-        <f>C10/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="D55" s="1">
-        <f>D10/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="E55" s="1">
-        <f>E10/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="F55" s="1">
-        <f>F10/5*1.5</f>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="G55" s="1">
-        <f>G10/5*1.5</f>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="H55" s="1">
-        <f>H10/5*1.5</f>
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
-        <f>K10/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>810</v>
       </c>
       <c r="L55" s="1">
-        <f>L10/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M55" s="1">
-        <f>M10/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N55" s="1">
-        <f>N10/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="1">
-        <f>C11/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D56" s="1">
-        <f>D11/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="E56" s="1">
-        <f>E11/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F56" s="1">
-        <f>F11/5*1.5</f>
+        <f t="shared" ref="F56:G59" si="6">F11/5*1.5</f>
         <v>900</v>
       </c>
       <c r="G56" s="1">
-        <f>G11/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
-        <f>K11/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>810</v>
       </c>
       <c r="L56" s="1">
-        <f>L11/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M56" s="1">
-        <f>M11/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N56" s="1">
-        <f>N11/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="1">
-        <f>C12/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D57" s="1">
-        <f>D12/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="E57" s="1">
-        <f>E12/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F57" s="1">
-        <f>F12/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G57" s="1">
-        <f>G12/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="1">
-        <f>K12/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="L57" s="1">
-        <f>L12/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M57" s="1">
-        <f>M12/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N57" s="1">
-        <f>N12/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="1">
-        <f>C13/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D58" s="1">
-        <f>D13/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="E58" s="1">
-        <f>E13/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F58" s="1">
-        <f>F13/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G58" s="1">
-        <f>G13/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1">
-        <f>K13/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="L58" s="1">
-        <f>L13/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M58" s="1">
-        <f>M13/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N58" s="1">
-        <f>N13/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="1">
-        <f>C14/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="D59" s="1">
-        <f>D14/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="E59" s="1">
-        <f>E14/5*1.5</f>
+        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="F59" s="1">
-        <f>F14/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>810</v>
       </c>
       <c r="G59" s="1">
-        <f>G14/5*1.5</f>
+        <f t="shared" si="6"/>
         <v>810</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1">
-        <f>K14/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="L59" s="1">
-        <f>L14/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="M59" s="1">
-        <f>M14/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="N59" s="1">
-        <f>N14/5*1.5</f>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="O59" s="2"/>
@@ -2808,90 +2912,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12" style="1"/>
+    <col min="1" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2"/>
@@ -2915,8 +3020,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1">
@@ -2940,8 +3046,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
@@ -2987,8 +3094,9 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
@@ -3034,8 +3142,9 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -3081,8 +3190,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
@@ -3120,8 +3230,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1">
@@ -3159,8 +3270,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1">
@@ -3196,8 +3308,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1">
@@ -3233,8 +3346,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1">
@@ -3270,8 +3384,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1">
@@ -3307,11 +3422,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2"/>
@@ -3335,8 +3450,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
@@ -3360,8 +3476,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
@@ -3407,8 +3524,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -3454,8 +3572,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
@@ -3501,8 +3620,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
@@ -3540,8 +3660,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -3579,8 +3700,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
@@ -3616,8 +3738,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
@@ -3653,8 +3776,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
@@ -3690,8 +3814,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
@@ -3727,11 +3852,11 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2"/>
@@ -3755,8 +3880,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1">
@@ -3780,8 +3906,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1">
@@ -3827,8 +3954,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
@@ -3874,8 +4002,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1">
@@ -3921,8 +4050,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="1">
@@ -3960,8 +4090,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="1">
@@ -3999,8 +4130,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="1">
@@ -4036,8 +4168,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="1">
@@ -4073,8 +4206,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="1">
@@ -4110,8 +4244,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="1">
@@ -4147,11 +4282,11 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2"/>
@@ -4175,8 +4310,9 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1">
@@ -4200,8 +4336,9 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1">
@@ -4247,8 +4384,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="1">
@@ -4294,8 +4432,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1">
@@ -4341,8 +4480,9 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="1">
@@ -4380,8 +4520,9 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="1">
@@ -4419,8 +4560,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="1">
@@ -4456,8 +4598,9 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="1">
@@ -4493,8 +4636,9 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1">
@@ -4530,8 +4674,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="1">
@@ -4567,28 +4712,29 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="2"/>
@@ -4612,8 +4758,9 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1">
@@ -4637,8 +4784,9 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="1">
@@ -4684,8 +4832,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="1">
@@ -4731,8 +4880,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="1">
@@ -4778,8 +4928,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="1">
@@ -4817,8 +4968,9 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="1">
@@ -4856,8 +5008,9 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="1">
@@ -4893,8 +5046,9 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="1">
@@ -4930,8 +5084,9 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="1">
@@ -4967,8 +5122,9 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="1">

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Excellent Teacher" sheetId="3" r:id="rId1"/>
     <sheet name="Average Teacher" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -130,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +152,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -224,16 +225,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -301,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,14 +517,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -530,32 +534,32 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="30.6" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" ht="45">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -603,31 +607,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
@@ -651,9 +655,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
@@ -677,9 +681,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
@@ -725,9 +729,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
@@ -773,9 +777,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1">
@@ -821,9 +825,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1">
@@ -861,9 +865,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1">
@@ -901,9 +905,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1">
@@ -939,9 +943,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1">
@@ -977,9 +981,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1">
@@ -1015,9 +1019,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1">
@@ -1053,11 +1057,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2"/>
@@ -1081,9 +1085,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
@@ -1107,9 +1111,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -1155,9 +1159,9 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
@@ -1203,9 +1207,9 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
@@ -1251,9 +1255,9 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
@@ -1291,9 +1295,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
@@ -1331,9 +1335,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
@@ -1369,9 +1373,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
@@ -1407,9 +1411,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
@@ -1445,9 +1449,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
@@ -1483,11 +1487,11 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="2"/>
@@ -1511,9 +1515,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1">
@@ -1537,9 +1541,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="1">
@@ -1585,9 +1589,9 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1">
@@ -1633,9 +1637,9 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1">
@@ -1681,9 +1685,9 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1">
@@ -1721,9 +1725,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="1">
@@ -1761,9 +1765,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:16">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1">
@@ -1799,9 +1803,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="1">
@@ -1837,9 +1841,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:16">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="1">
@@ -1875,9 +1879,9 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="1">
@@ -1913,11 +1917,11 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:16">
+      <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="2"/>
@@ -1941,9 +1945,9 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1">
@@ -1967,9 +1971,9 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:16">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1">
@@ -2015,9 +2019,9 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:16">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="1">
@@ -2063,9 +2067,9 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:16">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1">
@@ -2111,9 +2115,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:16">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="1">
@@ -2151,9 +2155,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="1">
@@ -2191,9 +2195,9 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="1">
@@ -2229,9 +2233,9 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:16">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1">
@@ -2267,9 +2271,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="1">
@@ -2305,9 +2309,9 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:16">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="1">
@@ -2343,31 +2347,31 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:16" ht="15">
+      <c r="A48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:16" ht="28.5">
+      <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="2"/>
@@ -2394,9 +2398,9 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:16">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1">
@@ -2423,9 +2427,9 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:16">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="1">
@@ -2485,9 +2489,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="1:16">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="1">
@@ -2547,9 +2551,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:16">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="1">
@@ -2609,9 +2613,9 @@
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:16">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="1">
@@ -2659,9 +2663,9 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="1">
@@ -2709,9 +2713,9 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:16">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="1">
@@ -2756,9 +2760,9 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="1:16">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="1">
@@ -2803,9 +2807,9 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:16">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="1">
@@ -2850,9 +2854,9 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="1:16">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="1">
@@ -2909,22 +2913,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="14.6640625" style="1"/>
+    <col min="1" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -2972,31 +2976,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" ht="15">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2"/>
@@ -3020,9 +3024,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1">
@@ -3046,9 +3050,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
@@ -3094,9 +3098,9 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
@@ -3105,7 +3109,7 @@
       <c r="D6" s="1">
         <v>3500</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>3500</v>
       </c>
       <c r="F6" s="1">
@@ -3142,9 +3146,9 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -3190,9 +3194,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
@@ -3230,9 +3234,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1">
@@ -3270,9 +3274,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1">
@@ -3308,9 +3312,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1">
@@ -3346,9 +3350,9 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1">
@@ -3384,9 +3388,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1">
@@ -3422,11 +3426,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2"/>
@@ -3450,9 +3454,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:16">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
@@ -3476,9 +3480,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
@@ -3524,9 +3528,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
@@ -3572,9 +3576,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
@@ -3620,9 +3624,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
@@ -3660,9 +3664,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -3700,9 +3704,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
@@ -3738,9 +3742,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
@@ -3776,9 +3780,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
@@ -3814,9 +3818,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
@@ -3852,11 +3856,11 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2"/>
@@ -3880,9 +3884,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1">
@@ -3906,9 +3910,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1">
@@ -3954,9 +3958,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
@@ -4002,9 +4006,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1">
@@ -4050,9 +4054,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:16">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="1">
@@ -4090,9 +4094,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="1">
@@ -4130,9 +4134,9 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:16">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="1">
@@ -4168,9 +4172,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:16">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="1">
@@ -4206,9 +4210,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="1">
@@ -4244,9 +4248,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:16">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="1">
@@ -4282,11 +4286,11 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2"/>
@@ -4310,9 +4314,9 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:16">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1">
@@ -4336,9 +4340,9 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1">
@@ -4384,9 +4388,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:16">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="1">
@@ -4432,9 +4436,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:16">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1">
@@ -4480,9 +4484,9 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:16">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="1">
@@ -4520,9 +4524,9 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:16">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="1">
@@ -4560,9 +4564,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="1">
@@ -4598,9 +4602,9 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="1">
@@ -4636,9 +4640,9 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:16">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="1">
@@ -4674,9 +4678,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="1">
@@ -4712,29 +4716,29 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:16" ht="15">
+      <c r="A47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="2"/>
@@ -4758,9 +4762,9 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
+    <row r="49" spans="1:16">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1">
@@ -4784,9 +4788,9 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:16">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="1">
@@ -4832,9 +4836,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:16">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="1">
@@ -4880,9 +4884,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
+    <row r="52" spans="1:16">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="1">
@@ -4928,9 +4932,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:16">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="1">
@@ -4968,9 +4972,9 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:16">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="1">
@@ -5008,9 +5012,9 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="1">
@@ -5046,9 +5050,9 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:16">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="1">
@@ -5084,9 +5088,9 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+    <row r="57" spans="1:16">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="1">
@@ -5122,9 +5126,9 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:16">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="1">

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Excellent Teacher" sheetId="3" r:id="rId1"/>
     <sheet name="Average Teacher" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,18 +98,6 @@
     <t>WB VIII</t>
   </si>
   <si>
-    <t>10 to 20</t>
-  </si>
-  <si>
-    <t>20 +</t>
-  </si>
-  <si>
-    <t>5 to 10</t>
-  </si>
-  <si>
-    <t>50 +</t>
-  </si>
-  <si>
     <t>Those teachers who have themselves ranked in Board or University exams, or have completed PhD or equivalent in their academic field or who have 10 or more students who have either ranked in board / university exams or are successfully working in high posts in world renouned organizations.</t>
   </si>
   <si>
@@ -120,6 +108,18 @@
   </si>
   <si>
     <t># of Students</t>
+  </si>
+  <si>
+    <t>&gt; 5</t>
+  </si>
+  <si>
+    <t>&gt; 10</t>
+  </si>
+  <si>
+    <t>&gt; 20</t>
+  </si>
+  <si>
+    <t>&gt; 50</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +195,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -214,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,9 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,11 +518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25"/>
@@ -541,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30.6" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -561,7 +552,7 @@
     </row>
     <row r="2" spans="1:16" ht="45">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
@@ -609,7 +600,7 @@
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -629,7 +620,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
@@ -1059,7 +1050,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -1489,7 +1480,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -1919,7 +1910,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -2349,7 +2340,7 @@
     </row>
     <row r="48" spans="1:16" ht="15">
       <c r="A48" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2369,7 +2360,7 @@
     </row>
     <row r="49" spans="1:16" ht="28.5">
       <c r="A49" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>14</v>
@@ -2916,11 +2907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="14.25"/>
@@ -2930,7 +2921,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -2978,7 +2969,7 @@
     </row>
     <row r="2" spans="1:16" ht="15">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2998,7 +2989,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -3109,7 +3100,7 @@
       <c r="D6" s="1">
         <v>3500</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="1">
         <v>3500</v>
       </c>
       <c r="F6" s="1">
@@ -3428,7 +3419,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -3858,7 +3849,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -4288,7 +4279,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -4718,7 +4709,7 @@
     </row>
     <row r="47" spans="1:16" ht="15">
       <c r="A47" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -406,15 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -427,11 +418,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,6 +453,51 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502502</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257176" y="180977"/>
+          <a:ext cx="1959826" cy="790574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,214 +763,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="57" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -963,25 +991,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickBot="1">
       <c r="A2" s="18" t="s">
@@ -1037,25 +1065,25 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
@@ -2889,49 +2917,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="19" t="s">
@@ -2942,25 +2970,25 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
   <si>
     <t>Physics</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Average Teacher Payout</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -378,21 +381,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -440,6 +428,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -859,13 +862,13 @@
     </row>
     <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -888,24 +891,24 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -919,13 +922,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -939,13 +942,13 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -976,13 +979,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R48"/>
+  <dimension ref="B1:S48"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z19" sqref="Z19"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -998,38 +1001,40 @@
     <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="12" style="1"/>
+    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="2:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+    </row>
+    <row r="3" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1064,1837 +1069,1957 @@
         <v>5</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
         <v>5400</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>5400</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>5400</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="18"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>5400</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>5400</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>5400</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>4200</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>4200</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>4200</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="16">
         <v>4200</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="16">
         <v>4200</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="16">
         <v>4200</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="16">
         <v>4200</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="16">
         <v>3000</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="16">
         <v>3000</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="N7" s="16">
         <v>2700</v>
       </c>
-      <c r="N7" s="21">
+      <c r="O7" s="16">
         <v>2700</v>
       </c>
-      <c r="O7" s="21">
+      <c r="P7" s="16">
         <v>2700</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q7" s="16">
         <v>2700</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="16">
         <v>2700</v>
       </c>
-      <c r="R7" s="24">
+      <c r="S7" s="19">
         <v>2700</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>4200</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>4200</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>4200</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>4200</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="16">
         <v>4200</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>4200</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="16">
         <v>4200</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="16">
         <v>3000</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="16">
         <v>3000</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="N8" s="16">
         <v>2700</v>
       </c>
-      <c r="N8" s="21">
+      <c r="O8" s="16">
         <v>2700</v>
       </c>
-      <c r="O8" s="21">
+      <c r="P8" s="16">
         <v>2700</v>
       </c>
-      <c r="P8" s="21">
+      <c r="Q8" s="16">
         <v>2700</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="R8" s="16">
         <v>2700</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="19">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>3600</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>3600</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>3600</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="16">
         <v>3600</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="16">
         <v>3600</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="16">
         <v>3600</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <v>3600</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="16">
         <v>2700</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="16">
         <v>2700</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N9" s="16">
         <v>2400</v>
       </c>
-      <c r="N9" s="21">
+      <c r="O9" s="16">
         <v>2400</v>
       </c>
-      <c r="O9" s="21">
+      <c r="P9" s="16">
         <v>2400</v>
       </c>
-      <c r="P9" s="21">
+      <c r="Q9" s="16">
         <v>2400</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="R9" s="16">
         <v>2400</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="19">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>3600</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>3600</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>3600</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <v>3600</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="16">
         <v>3600</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="16">
         <v>3600</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16">
         <v>2700</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N10" s="16">
         <v>2400</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="16">
         <v>2400</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="16">
         <v>2400</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>3600</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>3600</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>3600</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="16">
         <v>3600</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="16">
         <v>3600</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="16">
         <v>3600</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16">
         <v>2700</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N11" s="16">
         <v>2400</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="16">
         <v>2400</v>
       </c>
-      <c r="O11" s="21">
+      <c r="P11" s="16">
         <v>2400</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>3000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <v>3000</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <v>3000</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="16">
         <v>3000</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="16">
         <v>3000</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16">
         <v>2700</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N12" s="16">
         <v>2400</v>
       </c>
-      <c r="N12" s="21">
+      <c r="O12" s="16">
         <v>2400</v>
       </c>
-      <c r="O12" s="21">
+      <c r="P12" s="16">
         <v>2400</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>3000</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <v>3000</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="16">
         <v>3000</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>3000</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="16">
         <v>3000</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16">
         <v>2400</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="16">
         <v>2400</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="16">
         <v>2400</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="16">
         <v>2400</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="P13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="16">
         <v>3000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="16">
         <v>3000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="16">
         <v>3000</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="16">
         <v>3000</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="16">
         <v>3000</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16">
         <v>2400</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="16">
         <v>2400</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="16">
         <v>2400</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="16">
         <v>2400</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="P14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="22">
         <v>2700</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="22">
         <v>2700</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <v>2700</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="22">
         <v>2700</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="22">
         <v>2700</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="27">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22">
         <v>2400</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="22">
         <v>2400</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="22">
         <v>2400</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="22">
         <v>2400</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="P15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
         <v>10800</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>10800</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="12">
         <v>10800</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>10800</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <v>10800</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <v>10800</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>8400</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <v>8400</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <v>8400</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="16">
         <v>8400</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="16">
         <v>8400</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="16">
         <v>8400</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="16">
         <v>8400</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="16">
         <v>6000</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="16">
         <v>6000</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="16">
         <v>5400</v>
       </c>
-      <c r="N18" s="21">
+      <c r="O18" s="16">
         <v>5400</v>
       </c>
-      <c r="O18" s="21">
+      <c r="P18" s="16">
         <v>5400</v>
       </c>
-      <c r="P18" s="21">
+      <c r="Q18" s="16">
         <v>5400</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="R18" s="16">
         <v>5400</v>
       </c>
-      <c r="R18" s="24">
+      <c r="S18" s="19">
         <v>5400</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <v>8400</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="16">
         <v>8400</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="16">
         <v>8400</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="16">
         <v>8400</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="16">
         <v>8400</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="16">
         <v>8400</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="16">
         <v>8400</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="16">
         <v>6000</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="16">
         <v>6000</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N19" s="16">
         <v>5400</v>
       </c>
-      <c r="N19" s="21">
+      <c r="O19" s="16">
         <v>5400</v>
       </c>
-      <c r="O19" s="21">
+      <c r="P19" s="16">
         <v>5400</v>
       </c>
-      <c r="P19" s="21">
+      <c r="Q19" s="16">
         <v>5400</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="R19" s="16">
         <v>5400</v>
       </c>
-      <c r="R19" s="24">
+      <c r="S19" s="19">
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>7200</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <v>7200</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <v>7200</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="16">
         <v>7200</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="16">
         <v>7200</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="16">
         <v>7200</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="16">
         <v>7200</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="16">
         <v>5400</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="16">
         <v>5400</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N20" s="16">
         <v>4800</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O20" s="16">
         <v>4800</v>
       </c>
-      <c r="O20" s="21">
+      <c r="P20" s="16">
         <v>4800</v>
       </c>
-      <c r="P20" s="21">
+      <c r="Q20" s="16">
         <v>4800</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="R20" s="16">
         <v>4800</v>
       </c>
-      <c r="R20" s="24">
+      <c r="S20" s="19">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>7200</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <v>7200</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <v>7200</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="16">
         <v>7200</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="16">
         <v>7200</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="16">
         <v>7200</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16">
         <v>5400</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N21" s="16">
         <v>4800</v>
       </c>
-      <c r="N21" s="21">
+      <c r="O21" s="16">
         <v>4800</v>
       </c>
-      <c r="O21" s="21">
+      <c r="P21" s="16">
         <v>4800</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="16">
         <v>7200</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <v>7200</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <v>7200</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="16">
         <v>7200</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="16">
         <v>7200</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="16">
         <v>7200</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16">
         <v>5400</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N22" s="16">
         <v>4800</v>
       </c>
-      <c r="N22" s="21">
+      <c r="O22" s="16">
         <v>4800</v>
       </c>
-      <c r="O22" s="21">
+      <c r="P22" s="16">
         <v>4800</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="16">
         <v>6000</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="16">
         <v>6000</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="16">
         <v>6000</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="16">
         <v>6000</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="16">
         <v>6000</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16">
         <v>5400</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N23" s="16">
         <v>4800</v>
       </c>
-      <c r="N23" s="21">
+      <c r="O23" s="16">
         <v>4800</v>
       </c>
-      <c r="O23" s="21">
+      <c r="P23" s="16">
         <v>4800</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="16">
         <v>6000</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="16">
         <v>6000</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <v>6000</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="16">
         <v>6000</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="16">
         <v>6000</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16">
         <v>4800</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="16">
         <v>4800</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="16">
         <v>4800</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="16">
         <v>4800</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="P24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="16">
         <v>6000</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="16">
         <v>6000</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="16">
         <v>6000</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="16">
         <v>6000</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="16">
         <v>6000</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="16">
         <v>4800</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="16">
         <v>4800</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="16">
         <v>4800</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="16">
         <v>4800</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="P25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="22">
         <v>5400</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="22">
         <v>5400</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="22">
         <v>5400</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="22">
         <v>5400</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="22">
         <v>5400</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="27">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22">
         <v>4800</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="22">
         <v>4800</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="22">
         <v>4800</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="22">
         <v>4800</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="P26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17">
+      <c r="D27" s="11"/>
+      <c r="E27" s="12">
         <v>21600</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <v>21600</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="12">
         <v>21600</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="18"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="16">
         <v>21600</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="16">
         <v>21600</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <v>21600</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="16">
         <v>16800</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="16">
         <v>16800</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <v>16800</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="16">
         <v>16800</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="16">
         <v>16800</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="16">
         <v>16800</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="16">
         <v>16800</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="16">
         <v>12000</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="16">
         <v>12000</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N29" s="16">
         <v>10800</v>
       </c>
-      <c r="N29" s="21">
+      <c r="O29" s="16">
         <v>10800</v>
       </c>
-      <c r="O29" s="21">
+      <c r="P29" s="16">
         <v>10800</v>
       </c>
-      <c r="P29" s="21">
+      <c r="Q29" s="16">
         <v>10800</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="R29" s="16">
         <v>10800</v>
       </c>
-      <c r="R29" s="24">
+      <c r="S29" s="19">
         <v>10800</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="16">
         <v>16800</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="16">
         <v>16800</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <v>16800</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="16">
         <v>16800</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="16">
         <v>16800</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="16">
         <v>16800</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="16">
         <v>16800</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="16">
         <v>12000</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="16">
         <v>12000</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N30" s="16">
         <v>10800</v>
       </c>
-      <c r="N30" s="21">
+      <c r="O30" s="16">
         <v>10800</v>
       </c>
-      <c r="O30" s="21">
+      <c r="P30" s="16">
         <v>10800</v>
       </c>
-      <c r="P30" s="21">
+      <c r="Q30" s="16">
         <v>10800</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="R30" s="16">
         <v>10800</v>
       </c>
-      <c r="R30" s="24">
+      <c r="S30" s="19">
         <v>10800</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="16">
         <v>14400</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="16">
         <v>14400</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="16">
         <v>14400</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="16">
         <v>14400</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="16">
         <v>14400</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="16">
         <v>14400</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="16">
         <v>14400</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="16">
         <v>10800</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="16">
         <v>10800</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N31" s="16">
         <v>9600</v>
       </c>
-      <c r="N31" s="21">
+      <c r="O31" s="16">
         <v>9600</v>
       </c>
-      <c r="O31" s="21">
+      <c r="P31" s="16">
         <v>9600</v>
       </c>
-      <c r="P31" s="21">
+      <c r="Q31" s="16">
         <v>9600</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="R31" s="16">
         <v>9600</v>
       </c>
-      <c r="R31" s="24">
+      <c r="S31" s="19">
         <v>9600</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="16">
         <v>14400</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <v>14400</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <v>14400</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="16">
         <v>14400</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="16">
         <v>14400</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="16">
         <v>14400</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21">
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16">
         <v>10800</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N32" s="16">
         <v>9600</v>
       </c>
-      <c r="N32" s="21">
+      <c r="O32" s="16">
         <v>9600</v>
       </c>
-      <c r="O32" s="21">
+      <c r="P32" s="16">
         <v>9600</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="16">
         <v>14400</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="16">
         <v>14400</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <v>14400</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="16">
         <v>14400</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="16">
         <v>14400</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="16">
         <v>14400</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="21">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16">
         <v>10800</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N33" s="16">
         <v>9600</v>
       </c>
-      <c r="N33" s="21">
+      <c r="O33" s="16">
         <v>9600</v>
       </c>
-      <c r="O33" s="21">
+      <c r="P33" s="16">
         <v>9600</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="16">
         <v>12000</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="16">
         <v>12000</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="16">
         <v>12000</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="16">
         <v>12000</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="16">
         <v>12000</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="16">
         <v>10800</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N34" s="16">
         <v>9600</v>
       </c>
-      <c r="N34" s="21">
+      <c r="O34" s="16">
         <v>9600</v>
       </c>
-      <c r="O34" s="21">
+      <c r="P34" s="16">
         <v>9600</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="16">
         <v>12000</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="16">
         <v>12000</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="16">
         <v>12000</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="16">
         <v>12000</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="16">
         <v>12000</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="16">
         <v>9600</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="16">
         <v>9600</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="16">
         <v>9600</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="16">
         <v>9600</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="23"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+      <c r="P35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="16">
         <v>12000</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="16">
         <v>12000</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="16">
         <v>12000</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="16">
         <v>12000</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="16">
         <v>12000</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="21">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16">
         <v>9600</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="16">
         <v>9600</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="16">
         <v>9600</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="16">
         <v>9600</v>
       </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="23"/>
-    </row>
-    <row r="37" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26" t="s">
+      <c r="P36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="22">
         <v>10800</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="22">
         <v>10800</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="22">
         <v>10800</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="22">
         <v>10800</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="22">
         <v>10800</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="27">
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="22">
         <v>9600</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="22">
         <v>9600</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="22">
         <v>9600</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="22">
         <v>9600</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="P37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17">
+      <c r="D38" s="11"/>
+      <c r="E38" s="12">
         <v>43200</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <v>43200</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <v>43200</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="18"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="16">
         <v>43200</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="16">
         <v>43200</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>43200</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="23"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="16">
         <v>33600</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="16">
         <v>33600</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <v>33600</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="16">
         <v>33600</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="16">
         <v>33600</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="16">
         <v>33600</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="16">
         <v>33600</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="16">
         <v>24000</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="16">
         <v>24000</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="16">
+        <v>24000</v>
+      </c>
+      <c r="N40" s="16">
         <v>21600</v>
       </c>
-      <c r="N40" s="21">
+      <c r="O40" s="16">
         <v>21600</v>
       </c>
-      <c r="O40" s="21">
+      <c r="P40" s="16">
         <v>21600</v>
       </c>
-      <c r="P40" s="21">
+      <c r="Q40" s="16">
         <v>21600</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="R40" s="16">
         <v>21600</v>
       </c>
-      <c r="R40" s="24">
+      <c r="S40" s="19">
         <v>21600</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="20" t="s">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="16">
         <v>33600</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="16">
         <v>33600</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <v>33600</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="16">
         <v>33600</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="16">
         <v>33600</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="16">
         <v>33600</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="16">
         <v>33600</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="16">
         <v>24000</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="16">
         <v>24000</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="16">
+        <v>24000</v>
+      </c>
+      <c r="N41" s="16">
         <v>21600</v>
       </c>
-      <c r="N41" s="21">
+      <c r="O41" s="16">
         <v>21600</v>
       </c>
-      <c r="O41" s="21">
+      <c r="P41" s="16">
         <v>21600</v>
       </c>
-      <c r="P41" s="21">
+      <c r="Q41" s="16">
         <v>21600</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="R41" s="16">
         <v>21600</v>
       </c>
-      <c r="R41" s="24">
+      <c r="S41" s="19">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="16">
         <v>28800</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="16">
         <v>28800</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="16">
         <v>28800</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="16">
         <v>28800</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="16">
         <v>28800</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="16">
         <v>28800</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="16">
         <v>28800</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="16">
         <v>21600</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="16">
         <v>21600</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N42" s="16">
         <v>19200</v>
       </c>
-      <c r="N42" s="21">
+      <c r="O42" s="16">
         <v>19200</v>
       </c>
-      <c r="O42" s="21">
+      <c r="P42" s="16">
         <v>19200</v>
       </c>
-      <c r="P42" s="21">
+      <c r="Q42" s="16">
         <v>19200</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="R42" s="16">
         <v>19200</v>
       </c>
-      <c r="R42" s="24">
+      <c r="S42" s="19">
         <v>19200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="16">
         <v>28800</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="16">
         <v>28800</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <v>28800</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="16">
         <v>28800</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="16">
         <v>28800</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="16">
         <v>28800</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="21">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="16">
         <v>21600</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N43" s="16">
         <v>19200</v>
       </c>
-      <c r="N43" s="21">
+      <c r="O43" s="16">
         <v>19200</v>
       </c>
-      <c r="O43" s="21">
+      <c r="P43" s="16">
         <v>19200</v>
       </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="23"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="16">
         <v>28800</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="16">
         <v>28800</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <v>28800</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="16">
         <v>28800</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="16">
         <v>28800</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="16">
         <v>28800</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="21">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="16">
         <v>21600</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M44" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N44" s="16">
         <v>19200</v>
       </c>
-      <c r="N44" s="21">
+      <c r="O44" s="16">
         <v>19200</v>
       </c>
-      <c r="O44" s="21">
+      <c r="P44" s="16">
         <v>19200</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="23"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20" t="s">
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="16">
         <v>24000</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="16">
         <v>24000</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <v>24000</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="16">
         <v>24000</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="16">
         <v>24000</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="21">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16">
         <v>21600</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N45" s="16">
         <v>19200</v>
       </c>
-      <c r="N45" s="21">
+      <c r="O45" s="16">
         <v>19200</v>
       </c>
-      <c r="O45" s="21">
+      <c r="P45" s="16">
         <v>19200</v>
       </c>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="23"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="s">
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="16">
         <v>24000</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="16">
         <v>24000</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <v>24000</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="16">
         <v>24000</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="16">
         <v>24000</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="21">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="16">
         <v>19200</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="16">
         <v>19200</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="16">
         <v>19200</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="16">
         <v>19200</v>
       </c>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="23"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20" t="s">
+      <c r="P46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="16">
         <v>24000</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="16">
         <v>24000</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <v>24000</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="16">
         <v>24000</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="16">
         <v>24000</v>
       </c>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="21">
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="16">
         <v>19200</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="16">
         <v>19200</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N47" s="16">
         <v>19200</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="16">
         <v>19200</v>
       </c>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="23"/>
-    </row>
-    <row r="48" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="26" t="s">
+      <c r="P47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+    </row>
+    <row r="48" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="22">
         <v>21600</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="22">
         <v>21600</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="22">
         <v>21600</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="22">
         <v>21600</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="22">
         <v>21600</v>
       </c>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="27">
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="22">
         <v>19200</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="22">
         <v>19200</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="22">
         <v>19200</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="22">
         <v>19200</v>
       </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="29"/>
+      <c r="P48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -2906,13 +3031,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R47"/>
+  <dimension ref="B1:S47"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2927,18 +3052,18 @@
     <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="14.6640625" style="1"/>
+    <col min="11" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
@@ -2973,1836 +3098,1956 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
         <v>4500</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>4500</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>4500</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="18"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>4500</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>4500</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>4500</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>3500</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>3500</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>3500</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="16">
         <v>3500</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="16">
         <v>3500</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="16">
         <v>3500</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="16">
         <v>3500</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="16">
         <v>2500</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="16">
         <v>2500</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="16">
+        <v>2500</v>
+      </c>
+      <c r="N6" s="16">
         <v>2250</v>
       </c>
-      <c r="N6" s="21">
+      <c r="O6" s="16">
         <v>2250</v>
       </c>
-      <c r="O6" s="21">
+      <c r="P6" s="16">
         <v>2250</v>
       </c>
-      <c r="P6" s="21">
+      <c r="Q6" s="16">
         <v>2250</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="R6" s="16">
         <v>2250</v>
       </c>
-      <c r="R6" s="24">
+      <c r="S6" s="19">
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>3500</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>3500</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>3500</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="16">
         <v>3500</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="16">
         <v>3500</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="16">
         <v>3500</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="16">
         <v>3500</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="16">
         <v>2500</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="16">
         <v>2500</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="16">
+        <v>2500</v>
+      </c>
+      <c r="N7" s="16">
         <v>2250</v>
       </c>
-      <c r="N7" s="21">
+      <c r="O7" s="16">
         <v>2250</v>
       </c>
-      <c r="O7" s="21">
+      <c r="P7" s="16">
         <v>2250</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q7" s="16">
         <v>2250</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="16">
         <v>2250</v>
       </c>
-      <c r="R7" s="24">
+      <c r="S7" s="19">
         <v>2250</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="16">
         <v>3000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>3000</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>3000</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>3000</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="16">
         <v>3000</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>3000</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="16">
         <v>3000</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="16">
         <v>2250</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="16">
         <v>2250</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="16">
+        <v>2250</v>
+      </c>
+      <c r="N8" s="16">
         <v>2000</v>
       </c>
-      <c r="N8" s="21">
+      <c r="O8" s="16">
         <v>2000</v>
       </c>
-      <c r="O8" s="21">
+      <c r="P8" s="16">
         <v>2000</v>
       </c>
-      <c r="P8" s="21">
+      <c r="Q8" s="16">
         <v>2000</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="R8" s="16">
         <v>2000</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="19">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>3000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>3000</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>3000</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="16">
         <v>3000</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="16">
         <v>3000</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="16">
         <v>3000</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16">
         <v>2250</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="16">
+        <v>2250</v>
+      </c>
+      <c r="N9" s="16">
         <v>2000</v>
       </c>
-      <c r="N9" s="21">
+      <c r="O9" s="16">
         <v>2000</v>
       </c>
-      <c r="O9" s="21">
+      <c r="P9" s="16">
         <v>2000</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="16">
         <v>3000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>3000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="16">
         <v>3000</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <v>3000</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="16">
         <v>3000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="16">
         <v>3000</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16">
         <v>2250</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="16">
+        <v>2250</v>
+      </c>
+      <c r="N10" s="16">
         <v>2000</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="16">
         <v>2000</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="16">
         <v>2000</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="16">
         <v>2500</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>2500</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>2500</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="16">
         <v>2500</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="16">
         <v>2500</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16">
         <v>2250</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="16">
+        <v>2250</v>
+      </c>
+      <c r="N11" s="16">
         <v>2000</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="16">
         <v>2000</v>
       </c>
-      <c r="O11" s="21">
+      <c r="P11" s="16">
         <v>2000</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="16">
         <v>2500</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <v>2500</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="16">
         <v>2500</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="16">
         <v>2500</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="16">
         <v>2500</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16">
         <v>2000</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="16">
         <v>2000</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="16">
         <v>2000</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="16">
         <v>2000</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="P12" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="16">
         <v>2500</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="16">
         <v>2500</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="16">
         <v>2500</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>2500</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="16">
         <v>2500</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16">
         <v>2000</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="16">
         <v>2000</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="16">
         <v>2000</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="16">
         <v>2000</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="P13" s="16">
+        <v>2000</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="22">
         <v>2250</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="22">
         <v>2250</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>2250</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="22">
         <v>2250</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="22">
         <v>2250</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="22">
         <v>2000</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="22">
         <v>2000</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="22">
         <v>2000</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="22">
         <v>2000</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="P14" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12">
         <v>9000</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>9000</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="12">
         <v>9000</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="18"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="16">
         <v>9000</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="16">
         <v>9000</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <v>9000</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="16">
         <v>7000</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="16">
         <v>7000</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="16">
         <v>7000</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="16">
         <v>7000</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="16">
         <v>7000</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="16">
         <v>7000</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="16">
         <v>7000</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="16">
         <v>5000</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="16">
         <v>5000</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="16">
+        <v>5000</v>
+      </c>
+      <c r="N17" s="16">
         <v>4500</v>
       </c>
-      <c r="N17" s="21">
+      <c r="O17" s="16">
         <v>4500</v>
       </c>
-      <c r="O17" s="21">
+      <c r="P17" s="16">
         <v>4500</v>
       </c>
-      <c r="P17" s="21">
+      <c r="Q17" s="16">
         <v>4500</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="R17" s="16">
         <v>4500</v>
       </c>
-      <c r="R17" s="24">
+      <c r="S17" s="19">
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <v>7000</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <v>7000</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <v>7000</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="16">
         <v>7000</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="16">
         <v>7000</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="16">
         <v>7000</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="16">
         <v>7000</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="16">
         <v>5000</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="16">
         <v>5000</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="16">
+        <v>5000</v>
+      </c>
+      <c r="N18" s="16">
         <v>4500</v>
       </c>
-      <c r="N18" s="21">
+      <c r="O18" s="16">
         <v>4500</v>
       </c>
-      <c r="O18" s="21">
+      <c r="P18" s="16">
         <v>4500</v>
       </c>
-      <c r="P18" s="21">
+      <c r="Q18" s="16">
         <v>4500</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="R18" s="16">
         <v>4500</v>
       </c>
-      <c r="R18" s="24">
+      <c r="S18" s="19">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="16">
         <v>6000</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="16">
         <v>6000</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="16">
         <v>6000</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="16">
         <v>6000</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="16">
         <v>6000</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="16">
         <v>6000</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="16">
         <v>6000</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="16">
         <v>4500</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="16">
         <v>4500</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="16">
+        <v>4500</v>
+      </c>
+      <c r="N19" s="16">
         <v>4000</v>
       </c>
-      <c r="N19" s="21">
+      <c r="O19" s="16">
         <v>4000</v>
       </c>
-      <c r="O19" s="21">
+      <c r="P19" s="16">
         <v>4000</v>
       </c>
-      <c r="P19" s="21">
+      <c r="Q19" s="16">
         <v>4000</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="R19" s="16">
         <v>4000</v>
       </c>
-      <c r="R19" s="24">
+      <c r="S19" s="19">
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>6000</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <v>6000</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <v>6000</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="16">
         <v>6000</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="16">
         <v>6000</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="16">
         <v>6000</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16">
         <v>4500</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="16">
+        <v>4500</v>
+      </c>
+      <c r="N20" s="16">
         <v>4000</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O20" s="16">
         <v>4000</v>
       </c>
-      <c r="O20" s="21">
+      <c r="P20" s="16">
         <v>4000</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>6000</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <v>6000</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="16">
         <v>6000</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="16">
         <v>6000</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="16">
         <v>6000</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="16">
         <v>6000</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16">
         <v>4500</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="16">
+        <v>4500</v>
+      </c>
+      <c r="N21" s="16">
         <v>4000</v>
       </c>
-      <c r="N21" s="21">
+      <c r="O21" s="16">
         <v>4000</v>
       </c>
-      <c r="O21" s="21">
+      <c r="P21" s="16">
         <v>4000</v>
       </c>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="16">
         <v>5000</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="16">
         <v>5000</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="16">
         <v>5000</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="16">
         <v>5000</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="16">
         <v>5000</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16">
         <v>4500</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="16">
+        <v>4500</v>
+      </c>
+      <c r="N22" s="16">
         <v>4000</v>
       </c>
-      <c r="N22" s="21">
+      <c r="O22" s="16">
         <v>4000</v>
       </c>
-      <c r="O22" s="21">
+      <c r="P22" s="16">
         <v>4000</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="16">
         <v>5000</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="16">
         <v>5000</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="16">
         <v>5000</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="16">
         <v>5000</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="16">
         <v>5000</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16">
         <v>4000</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="16">
         <v>4000</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="16">
         <v>4000</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="16">
         <v>4000</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="P23" s="16">
+        <v>4000</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="16">
         <v>5000</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="16">
         <v>5000</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="16">
         <v>5000</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="16">
         <v>5000</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="16">
         <v>5000</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16">
         <v>4000</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="16">
         <v>4000</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="16">
         <v>4000</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="16">
         <v>4000</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="P24" s="16">
+        <v>4000</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="22">
         <v>4500</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="22">
         <v>4500</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="22">
         <v>4500</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="22">
         <v>4500</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="22">
         <v>4500</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="27">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22">
         <v>4000</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="22">
         <v>4000</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="22">
         <v>4000</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="22">
         <v>4000</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="29"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="P25" s="22">
+        <v>4000</v>
+      </c>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12">
         <v>18000</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="12">
         <v>18000</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="12">
         <v>18000</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="18"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="16">
         <v>18000</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="16">
         <v>18000</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <v>18000</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="16">
         <v>14000</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="16">
         <v>14000</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <v>14000</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="16">
         <v>14000</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="16">
         <v>14000</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="16">
         <v>14000</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="16">
         <v>14000</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="16">
         <v>10000</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="16">
         <v>10000</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="16">
         <v>9000</v>
       </c>
-      <c r="N28" s="21">
+      <c r="O28" s="16">
         <v>9000</v>
       </c>
-      <c r="O28" s="21">
+      <c r="P28" s="16">
         <v>9000</v>
       </c>
-      <c r="P28" s="21">
+      <c r="Q28" s="16">
         <v>9000</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="R28" s="16">
         <v>9000</v>
       </c>
-      <c r="R28" s="24">
+      <c r="S28" s="19">
         <v>9000</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="16">
         <v>14000</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="16">
         <v>14000</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <v>14000</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="16">
         <v>14000</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="16">
         <v>14000</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="16">
         <v>14000</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="16">
         <v>14000</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="16">
         <v>10000</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="16">
         <v>10000</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="16">
         <v>9000</v>
       </c>
-      <c r="N29" s="21">
+      <c r="O29" s="16">
         <v>9000</v>
       </c>
-      <c r="O29" s="21">
+      <c r="P29" s="16">
         <v>9000</v>
       </c>
-      <c r="P29" s="21">
+      <c r="Q29" s="16">
         <v>9000</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="R29" s="16">
         <v>9000</v>
       </c>
-      <c r="R29" s="24">
+      <c r="S29" s="19">
         <v>9000</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="16">
         <v>12000</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="16">
         <v>12000</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <v>12000</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="16">
         <v>12000</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="16">
         <v>12000</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="16">
         <v>12000</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="16">
         <v>12000</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="16">
         <v>9000</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="16">
         <v>9000</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="16">
+        <v>9000</v>
+      </c>
+      <c r="N30" s="16">
         <v>8000</v>
       </c>
-      <c r="N30" s="21">
+      <c r="O30" s="16">
         <v>8000</v>
       </c>
-      <c r="O30" s="21">
+      <c r="P30" s="16">
         <v>8000</v>
       </c>
-      <c r="P30" s="21">
+      <c r="Q30" s="16">
         <v>8000</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="R30" s="16">
         <v>8000</v>
       </c>
-      <c r="R30" s="24">
+      <c r="S30" s="19">
         <v>8000</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="16">
         <v>12000</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="16">
         <v>12000</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="16">
         <v>12000</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="16">
         <v>12000</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="16">
         <v>12000</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="16">
         <v>12000</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="21">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="16">
         <v>9000</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="16">
+        <v>9000</v>
+      </c>
+      <c r="N31" s="16">
         <v>8000</v>
       </c>
-      <c r="N31" s="21">
+      <c r="O31" s="16">
         <v>8000</v>
       </c>
-      <c r="O31" s="21">
+      <c r="P31" s="16">
         <v>8000</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="16">
         <v>12000</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="16">
         <v>12000</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="16">
         <v>12000</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="16">
         <v>12000</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="16">
         <v>12000</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="16">
         <v>12000</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="21">
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16">
         <v>9000</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32" s="16">
+        <v>9000</v>
+      </c>
+      <c r="N32" s="16">
         <v>8000</v>
       </c>
-      <c r="N32" s="21">
+      <c r="O32" s="16">
         <v>8000</v>
       </c>
-      <c r="O32" s="21">
+      <c r="P32" s="16">
         <v>8000</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="16">
         <v>10000</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="16">
         <v>10000</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="16">
         <v>10000</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="16">
         <v>10000</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="16">
         <v>10000</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="21">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16">
         <v>9000</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="16">
+        <v>9000</v>
+      </c>
+      <c r="N33" s="16">
         <v>8000</v>
       </c>
-      <c r="N33" s="21">
+      <c r="O33" s="16">
         <v>8000</v>
       </c>
-      <c r="O33" s="21">
+      <c r="P33" s="16">
         <v>8000</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="16">
         <v>10000</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="16">
         <v>10000</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="16">
         <v>10000</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="16">
         <v>10000</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="16">
         <v>10000</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="21">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="16">
         <v>8000</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="16">
         <v>8000</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="16">
         <v>8000</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="16">
         <v>8000</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+      <c r="P34" s="16">
+        <v>8000</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="16">
         <v>10000</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="16">
         <v>10000</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="16">
         <v>10000</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="16">
         <v>10000</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="16">
         <v>10000</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="16">
         <v>8000</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="16">
         <v>8000</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="16">
         <v>8000</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="16">
         <v>8000</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="23"/>
-    </row>
-    <row r="36" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26" t="s">
+      <c r="P35" s="16">
+        <v>8000</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="22">
         <v>9000</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="22">
         <v>9000</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="22">
         <v>9000</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="22">
         <v>9000</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="22">
         <v>9000</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="27">
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="22">
         <v>8000</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="22">
         <v>8000</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="22">
         <v>8000</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="22">
         <v>8000</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="29"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="P36" s="22">
+        <v>8000</v>
+      </c>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17">
+      <c r="D37" s="11"/>
+      <c r="E37" s="12">
         <v>36000</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="12">
         <v>36000</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="12">
         <v>36000</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="18"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="16">
         <v>36000</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="16">
         <v>36000</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <v>36000</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="23"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="16">
         <v>28000</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="16">
         <v>28000</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="16">
         <v>28000</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="16">
         <v>28000</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="16">
         <v>28000</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="16">
         <v>28000</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="16">
         <v>28000</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="16">
         <v>20000</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="16">
         <v>20000</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N39" s="16">
         <v>18000</v>
       </c>
-      <c r="N39" s="21">
+      <c r="O39" s="16">
         <v>18000</v>
       </c>
-      <c r="O39" s="21">
+      <c r="P39" s="16">
         <v>18000</v>
       </c>
-      <c r="P39" s="21">
+      <c r="Q39" s="16">
         <v>18000</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="R39" s="16">
         <v>18000</v>
       </c>
-      <c r="R39" s="24">
+      <c r="S39" s="19">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="16">
         <v>28000</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="16">
         <v>28000</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="16">
         <v>28000</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="16">
         <v>28000</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="16">
         <v>28000</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="16">
         <v>28000</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="16">
         <v>28000</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="16">
         <v>20000</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="16">
         <v>20000</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N40" s="16">
         <v>18000</v>
       </c>
-      <c r="N40" s="21">
+      <c r="O40" s="16">
         <v>18000</v>
       </c>
-      <c r="O40" s="21">
+      <c r="P40" s="16">
         <v>18000</v>
       </c>
-      <c r="P40" s="21">
+      <c r="Q40" s="16">
         <v>18000</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="R40" s="16">
         <v>18000</v>
       </c>
-      <c r="R40" s="24">
+      <c r="S40" s="19">
         <v>18000</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="20" t="s">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="16">
         <v>24000</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="16">
         <v>24000</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="16">
         <v>24000</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="16">
         <v>24000</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="16">
         <v>24000</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="16">
         <v>24000</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="16">
         <v>24000</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="16">
         <v>18000</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="16">
         <v>18000</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="16">
+        <v>18000</v>
+      </c>
+      <c r="N41" s="16">
         <v>16000</v>
       </c>
-      <c r="N41" s="21">
+      <c r="O41" s="16">
         <v>16000</v>
       </c>
-      <c r="O41" s="21">
+      <c r="P41" s="16">
         <v>16000</v>
       </c>
-      <c r="P41" s="21">
+      <c r="Q41" s="16">
         <v>16000</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="R41" s="16">
         <v>16000</v>
       </c>
-      <c r="R41" s="24">
+      <c r="S41" s="19">
         <v>16000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="16">
         <v>24000</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="16">
         <v>24000</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="16">
         <v>24000</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="16">
         <v>24000</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="16">
         <v>24000</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="16">
         <v>24000</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="16">
         <v>18000</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="16">
+        <v>18000</v>
+      </c>
+      <c r="N42" s="16">
         <v>16000</v>
       </c>
-      <c r="N42" s="21">
+      <c r="O42" s="16">
         <v>16000</v>
       </c>
-      <c r="O42" s="21">
+      <c r="P42" s="16">
         <v>16000</v>
       </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="23"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="16">
         <v>24000</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="16">
         <v>24000</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="16">
         <v>24000</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="16">
         <v>24000</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="16">
         <v>24000</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="16">
         <v>24000</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="21">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="16">
         <v>18000</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="16">
+        <v>18000</v>
+      </c>
+      <c r="N43" s="16">
         <v>16000</v>
       </c>
-      <c r="N43" s="21">
+      <c r="O43" s="16">
         <v>16000</v>
       </c>
-      <c r="O43" s="21">
+      <c r="P43" s="16">
         <v>16000</v>
       </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="23"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="16">
         <v>20000</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="16">
         <v>20000</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="16">
         <v>20000</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="16">
         <v>20000</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="16">
         <v>20000</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="21">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="16">
         <v>18000</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M44" s="16">
+        <v>18000</v>
+      </c>
+      <c r="N44" s="16">
         <v>16000</v>
       </c>
-      <c r="N44" s="21">
+      <c r="O44" s="16">
         <v>16000</v>
       </c>
-      <c r="O44" s="21">
+      <c r="P44" s="16">
         <v>16000</v>
       </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="23"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20" t="s">
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="16">
         <v>20000</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="16">
         <v>20000</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <v>20000</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="16">
         <v>20000</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="16">
         <v>20000</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="21">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16">
         <v>16000</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="16">
         <v>16000</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="16">
         <v>16000</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="16">
         <v>16000</v>
       </c>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="23"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="s">
+      <c r="P45" s="16">
+        <v>16000</v>
+      </c>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="16">
         <v>20000</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="16">
         <v>20000</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <v>20000</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="16">
         <v>20000</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="16">
         <v>20000</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="21">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="16">
         <v>16000</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="16">
         <v>16000</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="16">
         <v>16000</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="16">
         <v>16000</v>
       </c>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="23"/>
-    </row>
-    <row r="47" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26" t="s">
+      <c r="P46" s="16">
+        <v>16000</v>
+      </c>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="22">
         <v>18000</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="22">
         <v>18000</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="22">
         <v>18000</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="22">
         <v>18000</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="22">
         <v>18000</v>
       </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="27">
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22">
         <v>16000</v>
       </c>
-      <c r="M47" s="27">
+      <c r="M47" s="22">
         <v>16000</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="22">
         <v>16000</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="22">
         <v>16000</v>
       </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="29"/>
+      <c r="P47" s="22">
+        <v>16000</v>
+      </c>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -194,7 +194,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,6 +449,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,11 +993,11 @@
   </sheetPr>
   <dimension ref="B1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1135,7 @@
       <c r="E5" s="12">
         <v>5400</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="30">
         <v>5400</v>
       </c>
       <c r="G5" s="12">
@@ -1153,7 +1165,7 @@
       <c r="E6" s="16">
         <v>5400</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="31">
         <v>5400</v>
       </c>
       <c r="G6" s="17"/>
@@ -1181,7 +1193,7 @@
       <c r="E7" s="16">
         <v>4200</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="31">
         <v>4200</v>
       </c>
       <c r="G7" s="16">
@@ -1235,7 +1247,7 @@
       <c r="E8" s="16">
         <v>4200</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="31">
         <v>4200</v>
       </c>
       <c r="G8" s="16">
@@ -1289,7 +1301,7 @@
       <c r="E9" s="16">
         <v>3600</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="31">
         <v>3600</v>
       </c>
       <c r="G9" s="16">
@@ -1343,7 +1355,7 @@
       <c r="E10" s="16">
         <v>3600</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="31">
         <v>3600</v>
       </c>
       <c r="G10" s="16">
@@ -1387,7 +1399,7 @@
       <c r="E11" s="16">
         <v>3600</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="31">
         <v>3600</v>
       </c>
       <c r="G11" s="16">
@@ -1599,7 +1611,7 @@
       <c r="E16" s="12">
         <v>10800</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="30">
         <v>10800</v>
       </c>
       <c r="G16" s="12">
@@ -1629,7 +1641,7 @@
       <c r="E17" s="16">
         <v>10800</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="31">
         <v>10800</v>
       </c>
       <c r="G17" s="17"/>
@@ -1657,7 +1669,7 @@
       <c r="E18" s="16">
         <v>8400</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="31">
         <v>8400</v>
       </c>
       <c r="G18" s="16">
@@ -1711,7 +1723,7 @@
       <c r="E19" s="16">
         <v>8400</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="31">
         <v>8400</v>
       </c>
       <c r="G19" s="16">
@@ -1765,7 +1777,7 @@
       <c r="E20" s="16">
         <v>7200</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="31">
         <v>7200</v>
       </c>
       <c r="G20" s="16">
@@ -1819,7 +1831,7 @@
       <c r="E21" s="16">
         <v>7200</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="31">
         <v>7200</v>
       </c>
       <c r="G21" s="16">
@@ -1863,7 +1875,7 @@
       <c r="E22" s="16">
         <v>7200</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="31">
         <v>7200</v>
       </c>
       <c r="G22" s="16">
@@ -2075,7 +2087,7 @@
       <c r="E27" s="12">
         <v>21600</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="30">
         <v>21600</v>
       </c>
       <c r="G27" s="12">
@@ -2105,7 +2117,7 @@
       <c r="E28" s="16">
         <v>21600</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="31">
         <v>21600</v>
       </c>
       <c r="G28" s="17"/>
@@ -2133,7 +2145,7 @@
       <c r="E29" s="16">
         <v>16800</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="31">
         <v>16800</v>
       </c>
       <c r="G29" s="16">
@@ -2187,7 +2199,7 @@
       <c r="E30" s="16">
         <v>16800</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="31">
         <v>16800</v>
       </c>
       <c r="G30" s="16">
@@ -2241,7 +2253,7 @@
       <c r="E31" s="16">
         <v>14400</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="31">
         <v>14400</v>
       </c>
       <c r="G31" s="16">
@@ -2295,7 +2307,7 @@
       <c r="E32" s="16">
         <v>14400</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="31">
         <v>14400</v>
       </c>
       <c r="G32" s="16">
@@ -2339,7 +2351,7 @@
       <c r="E33" s="16">
         <v>14400</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="31">
         <v>14400</v>
       </c>
       <c r="G33" s="16">
@@ -2551,7 +2563,7 @@
       <c r="E38" s="12">
         <v>43200</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="30">
         <v>43200</v>
       </c>
       <c r="G38" s="12">
@@ -2581,7 +2593,7 @@
       <c r="E39" s="16">
         <v>43200</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="31">
         <v>43200</v>
       </c>
       <c r="G39" s="17"/>
@@ -2609,7 +2621,7 @@
       <c r="E40" s="16">
         <v>33600</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="31">
         <v>33600</v>
       </c>
       <c r="G40" s="16">
@@ -2663,7 +2675,7 @@
       <c r="E41" s="16">
         <v>33600</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="31">
         <v>33600</v>
       </c>
       <c r="G41" s="16">
@@ -2717,7 +2729,7 @@
       <c r="E42" s="16">
         <v>28800</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="31">
         <v>28800</v>
       </c>
       <c r="G42" s="16">
@@ -2771,7 +2783,7 @@
       <c r="E43" s="16">
         <v>28800</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="31">
         <v>28800</v>
       </c>
       <c r="G43" s="16">
@@ -2815,7 +2827,7 @@
       <c r="E44" s="16">
         <v>28800</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="31">
         <v>28800</v>
       </c>
       <c r="G44" s="16">

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
-    <sheet name="Premium Teacher" sheetId="3" r:id="rId2"/>
+    <sheet name="Average Teacher Math Physics" sheetId="6" r:id="rId2"/>
     <sheet name="Average Teacher" sheetId="1" r:id="rId3"/>
+    <sheet name="Premium Teacher" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>Physics</t>
   </si>
@@ -151,12 +152,33 @@
   <si>
     <t>English</t>
   </si>
+  <si>
+    <t>&gt;= 50</t>
+  </si>
+  <si>
+    <t>&gt;= 20</t>
+  </si>
+  <si>
+    <t>&gt;= 10</t>
+  </si>
+  <si>
+    <t>&gt;= 5</t>
+  </si>
+  <si>
+    <t>ISC / CBSE XI XII</t>
+  </si>
+  <si>
+    <t>ICSE / CBSE IX X</t>
+  </si>
+  <si>
+    <t>ICSE / CBSE VIII</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +212,18 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="0"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Oxygen"/>
     </font>
@@ -232,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -357,11 +391,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,6 +667,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -450,11 +697,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,15 +1075,15 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -809,7 +1092,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -818,7 +1101,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -827,7 +1110,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -836,7 +1119,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -845,7 +1128,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -854,7 +1137,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -863,7 +1146,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -872,18 +1155,18 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -892,7 +1175,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -901,29 +1184,29 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -932,18 +1215,18 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -952,18 +1235,18 @@
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -991,2047 +1274,311 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S48"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F6"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1"/>
-    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="12" style="1"/>
+    <col min="1" max="1" width="22.42578125" style="1"/>
+    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="22.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="36">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
-        <v>5400</v>
-      </c>
-      <c r="F5" s="30">
-        <v>5400</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5400</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="D4" s="36">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="38">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="38">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="38">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="38">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="38">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="40">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16">
-        <v>5400</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5400</v>
-      </c>
-      <c r="F6" s="31">
-        <v>5400</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="D11" s="41">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="38">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="38">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="38">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39"/>
+      <c r="C17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="40">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="41">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="E7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="F7" s="31">
-        <v>4200</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="H7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4200</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="D19" s="38">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="38">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="38">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="37"/>
+      <c r="C22" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="37"/>
+      <c r="C23" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="39"/>
+      <c r="C24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="40">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="41">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="38">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="38">
         <v>3000</v>
       </c>
-      <c r="L7" s="16">
+    </row>
+    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="38">
         <v>3000</v>
       </c>
-      <c r="M7" s="16">
-        <v>3000</v>
-      </c>
-      <c r="N7" s="16">
-        <v>2700</v>
-      </c>
-      <c r="O7" s="16">
-        <v>2700</v>
-      </c>
-      <c r="P7" s="16">
-        <v>2700</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>2700</v>
-      </c>
-      <c r="R7" s="16">
-        <v>2700</v>
-      </c>
-      <c r="S7" s="19">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="E8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="F8" s="31">
-        <v>4200</v>
-      </c>
-      <c r="G8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="H8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="J8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="K8" s="16">
-        <v>3000</v>
-      </c>
-      <c r="L8" s="16">
-        <v>3000</v>
-      </c>
-      <c r="M8" s="16">
-        <v>3000</v>
-      </c>
-      <c r="N8" s="16">
-        <v>2700</v>
-      </c>
-      <c r="O8" s="16">
-        <v>2700</v>
-      </c>
-      <c r="P8" s="16">
-        <v>2700</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>2700</v>
-      </c>
-      <c r="R8" s="16">
-        <v>2700</v>
-      </c>
-      <c r="S8" s="19">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="F9" s="31">
-        <v>3600</v>
-      </c>
-      <c r="G9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="I9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="J9" s="16">
-        <v>3600</v>
-      </c>
-      <c r="K9" s="16">
-        <v>2700</v>
-      </c>
-      <c r="L9" s="16">
-        <v>2700</v>
-      </c>
-      <c r="M9" s="16">
-        <v>2700</v>
-      </c>
-      <c r="N9" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O9" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P9" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>2400</v>
-      </c>
-      <c r="R9" s="16">
-        <v>2400</v>
-      </c>
-      <c r="S9" s="19">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3600</v>
-      </c>
-      <c r="E10" s="16">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="31">
-        <v>3600</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="16">
-        <v>3600</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3600</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16">
-        <v>2700</v>
-      </c>
-      <c r="M10" s="16">
-        <v>2700</v>
-      </c>
-      <c r="N10" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O10" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P10" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
-        <v>3600</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3600</v>
-      </c>
-      <c r="F11" s="31">
-        <v>3600</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="16">
-        <v>3600</v>
-      </c>
-      <c r="I11" s="16">
-        <v>3600</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16">
-        <v>2700</v>
-      </c>
-      <c r="M11" s="16">
-        <v>2700</v>
-      </c>
-      <c r="N11" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O11" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P11" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16">
-        <v>3000</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="16">
-        <v>3000</v>
-      </c>
-      <c r="H12" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16">
-        <v>2700</v>
-      </c>
-      <c r="M12" s="16">
-        <v>2700</v>
-      </c>
-      <c r="N12" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O12" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P12" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="D29" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+      <c r="C30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="F13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="H13" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16">
-        <v>2400</v>
-      </c>
-      <c r="M13" s="16">
-        <v>2400</v>
-      </c>
-      <c r="N13" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O13" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P13" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16">
-        <v>2400</v>
-      </c>
-      <c r="M14" s="16">
-        <v>2400</v>
-      </c>
-      <c r="N14" s="16">
-        <v>2400</v>
-      </c>
-      <c r="O14" s="16">
-        <v>2400</v>
-      </c>
-      <c r="P14" s="16">
-        <v>2400</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="D30" s="38">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="22">
-        <v>2700</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2700</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2700</v>
-      </c>
-      <c r="G15" s="22">
-        <v>2700</v>
-      </c>
-      <c r="H15" s="22">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="22">
-        <v>2400</v>
-      </c>
-      <c r="M15" s="22">
-        <v>2400</v>
-      </c>
-      <c r="N15" s="22">
-        <v>2400</v>
-      </c>
-      <c r="O15" s="22">
-        <v>2400</v>
-      </c>
-      <c r="P15" s="22">
-        <v>2400</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12">
-        <v>10800</v>
-      </c>
-      <c r="F16" s="30">
-        <v>10800</v>
-      </c>
-      <c r="G16" s="12">
-        <v>10800</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="16">
-        <v>10800</v>
-      </c>
-      <c r="E17" s="16">
-        <v>10800</v>
-      </c>
-      <c r="F17" s="31">
-        <v>10800</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="E18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="F18" s="31">
-        <v>8400</v>
-      </c>
-      <c r="G18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="H18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="I18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="J18" s="16">
-        <v>8400</v>
-      </c>
-      <c r="K18" s="16">
-        <v>6000</v>
-      </c>
-      <c r="L18" s="16">
-        <v>6000</v>
-      </c>
-      <c r="M18" s="16">
-        <v>6000</v>
-      </c>
-      <c r="N18" s="16">
-        <v>5400</v>
-      </c>
-      <c r="O18" s="16">
-        <v>5400</v>
-      </c>
-      <c r="P18" s="16">
-        <v>5400</v>
-      </c>
-      <c r="Q18" s="16">
-        <v>5400</v>
-      </c>
-      <c r="R18" s="16">
-        <v>5400</v>
-      </c>
-      <c r="S18" s="19">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="E19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="F19" s="31">
-        <v>8400</v>
-      </c>
-      <c r="G19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="H19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="I19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="J19" s="16">
-        <v>8400</v>
-      </c>
-      <c r="K19" s="16">
-        <v>6000</v>
-      </c>
-      <c r="L19" s="16">
-        <v>6000</v>
-      </c>
-      <c r="M19" s="16">
-        <v>6000</v>
-      </c>
-      <c r="N19" s="16">
-        <v>5400</v>
-      </c>
-      <c r="O19" s="16">
-        <v>5400</v>
-      </c>
-      <c r="P19" s="16">
-        <v>5400</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>5400</v>
-      </c>
-      <c r="R19" s="16">
-        <v>5400</v>
-      </c>
-      <c r="S19" s="19">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="E20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="F20" s="31">
-        <v>7200</v>
-      </c>
-      <c r="G20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="H20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="I20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="J20" s="16">
-        <v>7200</v>
-      </c>
-      <c r="K20" s="16">
-        <v>5400</v>
-      </c>
-      <c r="L20" s="16">
-        <v>5400</v>
-      </c>
-      <c r="M20" s="16">
-        <v>5400</v>
-      </c>
-      <c r="N20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="R20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="S20" s="19">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="16">
-        <v>7200</v>
-      </c>
-      <c r="E21" s="16">
-        <v>7200</v>
-      </c>
-      <c r="F21" s="31">
-        <v>7200</v>
-      </c>
-      <c r="G21" s="16">
-        <v>7200</v>
-      </c>
-      <c r="H21" s="16">
-        <v>7200</v>
-      </c>
-      <c r="I21" s="16">
-        <v>7200</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="16">
-        <v>5400</v>
-      </c>
-      <c r="M21" s="16">
-        <v>5400</v>
-      </c>
-      <c r="N21" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O21" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P21" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="16">
-        <v>7200</v>
-      </c>
-      <c r="E22" s="16">
-        <v>7200</v>
-      </c>
-      <c r="F22" s="31">
-        <v>7200</v>
-      </c>
-      <c r="G22" s="16">
-        <v>7200</v>
-      </c>
-      <c r="H22" s="16">
-        <v>7200</v>
-      </c>
-      <c r="I22" s="16">
-        <v>7200</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="16">
-        <v>5400</v>
-      </c>
-      <c r="M22" s="16">
-        <v>5400</v>
-      </c>
-      <c r="N22" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O22" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P22" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="16">
-        <v>6000</v>
-      </c>
-      <c r="E23" s="16">
-        <v>6000</v>
-      </c>
-      <c r="F23" s="16">
-        <v>6000</v>
-      </c>
-      <c r="G23" s="16">
-        <v>6000</v>
-      </c>
-      <c r="H23" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16">
-        <v>5400</v>
-      </c>
-      <c r="M23" s="16">
-        <v>5400</v>
-      </c>
-      <c r="N23" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O23" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P23" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="16">
-        <v>6000</v>
-      </c>
-      <c r="E24" s="16">
-        <v>6000</v>
-      </c>
-      <c r="F24" s="16">
-        <v>6000</v>
-      </c>
-      <c r="G24" s="16">
-        <v>6000</v>
-      </c>
-      <c r="H24" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="N24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="16">
-        <v>6000</v>
-      </c>
-      <c r="E25" s="16">
-        <v>6000</v>
-      </c>
-      <c r="F25" s="16">
-        <v>6000</v>
-      </c>
-      <c r="G25" s="16">
-        <v>6000</v>
-      </c>
-      <c r="H25" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="N25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="O25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="P25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="22">
-        <v>5400</v>
-      </c>
-      <c r="E26" s="22">
-        <v>5400</v>
-      </c>
-      <c r="F26" s="22">
-        <v>5400</v>
-      </c>
-      <c r="G26" s="22">
-        <v>5400</v>
-      </c>
-      <c r="H26" s="22">
-        <v>5400</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="22">
-        <v>4800</v>
-      </c>
-      <c r="M26" s="22">
-        <v>4800</v>
-      </c>
-      <c r="N26" s="22">
-        <v>4800</v>
-      </c>
-      <c r="O26" s="22">
-        <v>4800</v>
-      </c>
-      <c r="P26" s="22">
-        <v>4800</v>
-      </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="24"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
-        <v>21600</v>
-      </c>
-      <c r="F27" s="30">
-        <v>21600</v>
-      </c>
-      <c r="G27" s="12">
-        <v>21600</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="16">
-        <v>21600</v>
-      </c>
-      <c r="E28" s="16">
-        <v>21600</v>
-      </c>
-      <c r="F28" s="31">
-        <v>21600</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="18"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="E29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="F29" s="31">
-        <v>16800</v>
-      </c>
-      <c r="G29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="H29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="I29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="J29" s="16">
-        <v>16800</v>
-      </c>
-      <c r="K29" s="16">
-        <v>12000</v>
-      </c>
-      <c r="L29" s="16">
-        <v>12000</v>
-      </c>
-      <c r="M29" s="16">
-        <v>12000</v>
-      </c>
-      <c r="N29" s="16">
-        <v>10800</v>
-      </c>
-      <c r="O29" s="16">
-        <v>10800</v>
-      </c>
-      <c r="P29" s="16">
-        <v>10800</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>10800</v>
-      </c>
-      <c r="R29" s="16">
-        <v>10800</v>
-      </c>
-      <c r="S29" s="19">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="E30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="F30" s="31">
-        <v>16800</v>
-      </c>
-      <c r="G30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="H30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="I30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="J30" s="16">
-        <v>16800</v>
-      </c>
-      <c r="K30" s="16">
-        <v>12000</v>
-      </c>
-      <c r="L30" s="16">
-        <v>12000</v>
-      </c>
-      <c r="M30" s="16">
-        <v>12000</v>
-      </c>
-      <c r="N30" s="16">
-        <v>10800</v>
-      </c>
-      <c r="O30" s="16">
-        <v>10800</v>
-      </c>
-      <c r="P30" s="16">
-        <v>10800</v>
-      </c>
-      <c r="Q30" s="16">
-        <v>10800</v>
-      </c>
-      <c r="R30" s="16">
-        <v>10800</v>
-      </c>
-      <c r="S30" s="19">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="E31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="F31" s="31">
-        <v>14400</v>
-      </c>
-      <c r="G31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="H31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="I31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="J31" s="16">
-        <v>14400</v>
-      </c>
-      <c r="K31" s="16">
-        <v>10800</v>
-      </c>
-      <c r="L31" s="16">
-        <v>10800</v>
-      </c>
-      <c r="M31" s="16">
-        <v>10800</v>
-      </c>
-      <c r="N31" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O31" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P31" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>9600</v>
-      </c>
-      <c r="R31" s="16">
-        <v>9600</v>
-      </c>
-      <c r="S31" s="19">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="16">
-        <v>14400</v>
-      </c>
-      <c r="E32" s="16">
-        <v>14400</v>
-      </c>
-      <c r="F32" s="31">
-        <v>14400</v>
-      </c>
-      <c r="G32" s="16">
-        <v>14400</v>
-      </c>
-      <c r="H32" s="16">
-        <v>14400</v>
-      </c>
-      <c r="I32" s="16">
-        <v>14400</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16">
-        <v>10800</v>
-      </c>
-      <c r="M32" s="16">
-        <v>10800</v>
-      </c>
-      <c r="N32" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O32" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P32" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="18"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="16">
-        <v>14400</v>
-      </c>
-      <c r="E33" s="16">
-        <v>14400</v>
-      </c>
-      <c r="F33" s="31">
-        <v>14400</v>
-      </c>
-      <c r="G33" s="16">
-        <v>14400</v>
-      </c>
-      <c r="H33" s="16">
-        <v>14400</v>
-      </c>
-      <c r="I33" s="16">
-        <v>14400</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16">
-        <v>10800</v>
-      </c>
-      <c r="M33" s="16">
-        <v>10800</v>
-      </c>
-      <c r="N33" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O33" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P33" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E34" s="16">
-        <v>12000</v>
-      </c>
-      <c r="F34" s="16">
-        <v>12000</v>
-      </c>
-      <c r="G34" s="16">
-        <v>12000</v>
-      </c>
-      <c r="H34" s="16">
-        <v>12000</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="16">
-        <v>10800</v>
-      </c>
-      <c r="M34" s="16">
-        <v>10800</v>
-      </c>
-      <c r="N34" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O34" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P34" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E35" s="16">
-        <v>12000</v>
-      </c>
-      <c r="F35" s="16">
-        <v>12000</v>
-      </c>
-      <c r="G35" s="16">
-        <v>12000</v>
-      </c>
-      <c r="H35" s="16">
-        <v>12000</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="16">
-        <v>9600</v>
-      </c>
-      <c r="M35" s="16">
-        <v>9600</v>
-      </c>
-      <c r="N35" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O35" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P35" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="18"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E36" s="16">
-        <v>12000</v>
-      </c>
-      <c r="F36" s="16">
-        <v>12000</v>
-      </c>
-      <c r="G36" s="16">
-        <v>12000</v>
-      </c>
-      <c r="H36" s="16">
-        <v>12000</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="16">
-        <v>9600</v>
-      </c>
-      <c r="M36" s="16">
-        <v>9600</v>
-      </c>
-      <c r="N36" s="16">
-        <v>9600</v>
-      </c>
-      <c r="O36" s="16">
-        <v>9600</v>
-      </c>
-      <c r="P36" s="16">
-        <v>9600</v>
-      </c>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="18"/>
-    </row>
-    <row r="37" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="22">
-        <v>10800</v>
-      </c>
-      <c r="E37" s="22">
-        <v>10800</v>
-      </c>
-      <c r="F37" s="22">
-        <v>10800</v>
-      </c>
-      <c r="G37" s="22">
-        <v>10800</v>
-      </c>
-      <c r="H37" s="22">
-        <v>10800</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="22">
-        <v>9600</v>
-      </c>
-      <c r="M37" s="22">
-        <v>9600</v>
-      </c>
-      <c r="N37" s="22">
-        <v>9600</v>
-      </c>
-      <c r="O37" s="22">
-        <v>9600</v>
-      </c>
-      <c r="P37" s="22">
-        <v>9600</v>
-      </c>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="24"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12">
-        <v>43200</v>
-      </c>
-      <c r="F38" s="30">
-        <v>43200</v>
-      </c>
-      <c r="G38" s="12">
-        <v>43200</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="13"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="16">
-        <v>43200</v>
-      </c>
-      <c r="E39" s="16">
-        <v>43200</v>
-      </c>
-      <c r="F39" s="31">
-        <v>43200</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="18"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="E40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="F40" s="31">
-        <v>33600</v>
-      </c>
-      <c r="G40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="H40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="I40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="J40" s="16">
-        <v>33600</v>
-      </c>
-      <c r="K40" s="16">
-        <v>24000</v>
-      </c>
-      <c r="L40" s="16">
-        <v>24000</v>
-      </c>
-      <c r="M40" s="16">
-        <v>24000</v>
-      </c>
-      <c r="N40" s="16">
-        <v>21600</v>
-      </c>
-      <c r="O40" s="16">
-        <v>21600</v>
-      </c>
-      <c r="P40" s="16">
-        <v>21600</v>
-      </c>
-      <c r="Q40" s="16">
-        <v>21600</v>
-      </c>
-      <c r="R40" s="16">
-        <v>21600</v>
-      </c>
-      <c r="S40" s="19">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="E41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="F41" s="31">
-        <v>33600</v>
-      </c>
-      <c r="G41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="H41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="I41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="J41" s="16">
-        <v>33600</v>
-      </c>
-      <c r="K41" s="16">
-        <v>24000</v>
-      </c>
-      <c r="L41" s="16">
-        <v>24000</v>
-      </c>
-      <c r="M41" s="16">
-        <v>24000</v>
-      </c>
-      <c r="N41" s="16">
-        <v>21600</v>
-      </c>
-      <c r="O41" s="16">
-        <v>21600</v>
-      </c>
-      <c r="P41" s="16">
-        <v>21600</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>21600</v>
-      </c>
-      <c r="R41" s="16">
-        <v>21600</v>
-      </c>
-      <c r="S41" s="19">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="E42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="F42" s="31">
-        <v>28800</v>
-      </c>
-      <c r="G42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="H42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="I42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="J42" s="16">
-        <v>28800</v>
-      </c>
-      <c r="K42" s="16">
-        <v>21600</v>
-      </c>
-      <c r="L42" s="16">
-        <v>21600</v>
-      </c>
-      <c r="M42" s="16">
-        <v>21600</v>
-      </c>
-      <c r="N42" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O42" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P42" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q42" s="16">
-        <v>19200</v>
-      </c>
-      <c r="R42" s="16">
-        <v>19200</v>
-      </c>
-      <c r="S42" s="19">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="16">
-        <v>28800</v>
-      </c>
-      <c r="E43" s="16">
-        <v>28800</v>
-      </c>
-      <c r="F43" s="31">
-        <v>28800</v>
-      </c>
-      <c r="G43" s="16">
-        <v>28800</v>
-      </c>
-      <c r="H43" s="16">
-        <v>28800</v>
-      </c>
-      <c r="I43" s="16">
-        <v>28800</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="16">
-        <v>21600</v>
-      </c>
-      <c r="M43" s="16">
-        <v>21600</v>
-      </c>
-      <c r="N43" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O43" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P43" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="16">
-        <v>28800</v>
-      </c>
-      <c r="E44" s="16">
-        <v>28800</v>
-      </c>
-      <c r="F44" s="31">
-        <v>28800</v>
-      </c>
-      <c r="G44" s="16">
-        <v>28800</v>
-      </c>
-      <c r="H44" s="16">
-        <v>28800</v>
-      </c>
-      <c r="I44" s="16">
-        <v>28800</v>
-      </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="16">
-        <v>21600</v>
-      </c>
-      <c r="M44" s="16">
-        <v>21600</v>
-      </c>
-      <c r="N44" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O44" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P44" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="18"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="16">
-        <v>24000</v>
-      </c>
-      <c r="E45" s="16">
-        <v>24000</v>
-      </c>
-      <c r="F45" s="16">
-        <v>24000</v>
-      </c>
-      <c r="G45" s="16">
-        <v>24000</v>
-      </c>
-      <c r="H45" s="16">
-        <v>24000</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="16">
-        <v>21600</v>
-      </c>
-      <c r="M45" s="16">
-        <v>21600</v>
-      </c>
-      <c r="N45" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O45" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P45" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="16">
-        <v>24000</v>
-      </c>
-      <c r="E46" s="16">
-        <v>24000</v>
-      </c>
-      <c r="F46" s="16">
-        <v>24000</v>
-      </c>
-      <c r="G46" s="16">
-        <v>24000</v>
-      </c>
-      <c r="H46" s="16">
-        <v>24000</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="16">
-        <v>19200</v>
-      </c>
-      <c r="M46" s="16">
-        <v>19200</v>
-      </c>
-      <c r="N46" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O46" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P46" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="18"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="16">
-        <v>24000</v>
-      </c>
-      <c r="E47" s="16">
-        <v>24000</v>
-      </c>
-      <c r="F47" s="16">
-        <v>24000</v>
-      </c>
-      <c r="G47" s="16">
-        <v>24000</v>
-      </c>
-      <c r="H47" s="16">
-        <v>24000</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="16">
-        <v>19200</v>
-      </c>
-      <c r="M47" s="16">
-        <v>19200</v>
-      </c>
-      <c r="N47" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O47" s="16">
-        <v>19200</v>
-      </c>
-      <c r="P47" s="16">
-        <v>19200</v>
-      </c>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="18"/>
-    </row>
-    <row r="48" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="22">
-        <v>21600</v>
-      </c>
-      <c r="E48" s="22">
-        <v>21600</v>
-      </c>
-      <c r="F48" s="22">
-        <v>21600</v>
-      </c>
-      <c r="G48" s="22">
-        <v>21600</v>
-      </c>
-      <c r="H48" s="22">
-        <v>21600</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="22">
-        <v>19200</v>
-      </c>
-      <c r="M48" s="22">
-        <v>19200</v>
-      </c>
-      <c r="N48" s="22">
-        <v>19200</v>
-      </c>
-      <c r="O48" s="22">
-        <v>19200</v>
-      </c>
-      <c r="P48" s="22">
-        <v>19200</v>
-      </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="24"/>
+      <c r="D31" s="40">
+        <v>2250</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B4:S4"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
@@ -3052,30 +1599,30 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="14.6640625" style="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3131,27 +1678,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -3587,7 +2134,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>24</v>
@@ -4063,7 +2610,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
         <v>24</v>
@@ -4539,7 +3086,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
         <v>24</v>
@@ -5015,7 +3562,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
         <v>24</v>
@@ -5064,4 +3611,2052 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:S48"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
+        <v>5400</v>
+      </c>
+      <c r="F5" s="28">
+        <v>5400</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5400</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5400</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5400</v>
+      </c>
+      <c r="F6" s="29">
+        <v>5400</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="F7" s="29">
+        <v>4200</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4200</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3000</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2700</v>
+      </c>
+      <c r="O7" s="16">
+        <v>2700</v>
+      </c>
+      <c r="P7" s="16">
+        <v>2700</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>2700</v>
+      </c>
+      <c r="R7" s="16">
+        <v>2700</v>
+      </c>
+      <c r="S7" s="19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4200</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4200</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="16">
+        <v>3000</v>
+      </c>
+      <c r="N8" s="16">
+        <v>2700</v>
+      </c>
+      <c r="O8" s="16">
+        <v>2700</v>
+      </c>
+      <c r="P8" s="16">
+        <v>2700</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>2700</v>
+      </c>
+      <c r="R8" s="16">
+        <v>2700</v>
+      </c>
+      <c r="S8" s="19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3600</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3600</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2700</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O9" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P9" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>2400</v>
+      </c>
+      <c r="R9" s="16">
+        <v>2400</v>
+      </c>
+      <c r="S9" s="19">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3600</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3600</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16">
+        <v>2700</v>
+      </c>
+      <c r="M10" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N10" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O10" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P10" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16">
+        <v>3600</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3600</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3600</v>
+      </c>
+      <c r="G11" s="16">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3600</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16">
+        <v>2700</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P11" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16">
+        <v>2700</v>
+      </c>
+      <c r="M12" s="16">
+        <v>2700</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P12" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="M13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="N13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P13" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="M14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="N14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="O14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="P14" s="16">
+        <v>2400</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2700</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2700</v>
+      </c>
+      <c r="G15" s="22">
+        <v>2700</v>
+      </c>
+      <c r="H15" s="22">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="M15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="N15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="O15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="P15" s="22">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
+        <v>10800</v>
+      </c>
+      <c r="F16" s="28">
+        <v>10800</v>
+      </c>
+      <c r="G16" s="12">
+        <v>10800</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16">
+        <v>10800</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10800</v>
+      </c>
+      <c r="F17" s="29">
+        <v>10800</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="E18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="F18" s="29">
+        <v>8400</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="H18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="I18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="J18" s="16">
+        <v>8400</v>
+      </c>
+      <c r="K18" s="16">
+        <v>6000</v>
+      </c>
+      <c r="L18" s="16">
+        <v>6000</v>
+      </c>
+      <c r="M18" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="16">
+        <v>5400</v>
+      </c>
+      <c r="O18" s="16">
+        <v>5400</v>
+      </c>
+      <c r="P18" s="16">
+        <v>5400</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>5400</v>
+      </c>
+      <c r="R18" s="16">
+        <v>5400</v>
+      </c>
+      <c r="S18" s="19">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="E19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="F19" s="29">
+        <v>8400</v>
+      </c>
+      <c r="G19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="H19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="I19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="J19" s="16">
+        <v>8400</v>
+      </c>
+      <c r="K19" s="16">
+        <v>6000</v>
+      </c>
+      <c r="L19" s="16">
+        <v>6000</v>
+      </c>
+      <c r="M19" s="16">
+        <v>6000</v>
+      </c>
+      <c r="N19" s="16">
+        <v>5400</v>
+      </c>
+      <c r="O19" s="16">
+        <v>5400</v>
+      </c>
+      <c r="P19" s="16">
+        <v>5400</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>5400</v>
+      </c>
+      <c r="R19" s="16">
+        <v>5400</v>
+      </c>
+      <c r="S19" s="19">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="29">
+        <v>7200</v>
+      </c>
+      <c r="G20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="H20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="I20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="J20" s="16">
+        <v>7200</v>
+      </c>
+      <c r="K20" s="16">
+        <v>5400</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5400</v>
+      </c>
+      <c r="M20" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="R20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="S20" s="19">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16">
+        <v>7200</v>
+      </c>
+      <c r="E21" s="16">
+        <v>7200</v>
+      </c>
+      <c r="F21" s="29">
+        <v>7200</v>
+      </c>
+      <c r="G21" s="16">
+        <v>7200</v>
+      </c>
+      <c r="H21" s="16">
+        <v>7200</v>
+      </c>
+      <c r="I21" s="16">
+        <v>7200</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16">
+        <v>5400</v>
+      </c>
+      <c r="M21" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N21" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O21" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P21" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="16">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="29">
+        <v>7200</v>
+      </c>
+      <c r="G22" s="16">
+        <v>7200</v>
+      </c>
+      <c r="H22" s="16">
+        <v>7200</v>
+      </c>
+      <c r="I22" s="16">
+        <v>7200</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16">
+        <v>5400</v>
+      </c>
+      <c r="M22" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N22" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O22" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P22" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="16">
+        <v>6000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>6000</v>
+      </c>
+      <c r="H23" s="16">
+        <v>6000</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16">
+        <v>5400</v>
+      </c>
+      <c r="M23" s="16">
+        <v>5400</v>
+      </c>
+      <c r="N23" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O23" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P23" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F24" s="16">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="16">
+        <v>6000</v>
+      </c>
+      <c r="H24" s="16">
+        <v>6000</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="N24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E25" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F25" s="16">
+        <v>6000</v>
+      </c>
+      <c r="G25" s="16">
+        <v>6000</v>
+      </c>
+      <c r="H25" s="16">
+        <v>6000</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="N25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="O25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="P25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="22">
+        <v>5400</v>
+      </c>
+      <c r="E26" s="22">
+        <v>5400</v>
+      </c>
+      <c r="F26" s="22">
+        <v>5400</v>
+      </c>
+      <c r="G26" s="22">
+        <v>5400</v>
+      </c>
+      <c r="H26" s="22">
+        <v>5400</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="M26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="N26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="O26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="P26" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12">
+        <v>21600</v>
+      </c>
+      <c r="F27" s="28">
+        <v>21600</v>
+      </c>
+      <c r="G27" s="12">
+        <v>21600</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="16">
+        <v>21600</v>
+      </c>
+      <c r="E28" s="16">
+        <v>21600</v>
+      </c>
+      <c r="F28" s="29">
+        <v>21600</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="E29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="F29" s="29">
+        <v>16800</v>
+      </c>
+      <c r="G29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="H29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="I29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="J29" s="16">
+        <v>16800</v>
+      </c>
+      <c r="K29" s="16">
+        <v>12000</v>
+      </c>
+      <c r="L29" s="16">
+        <v>12000</v>
+      </c>
+      <c r="M29" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N29" s="16">
+        <v>10800</v>
+      </c>
+      <c r="O29" s="16">
+        <v>10800</v>
+      </c>
+      <c r="P29" s="16">
+        <v>10800</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>10800</v>
+      </c>
+      <c r="R29" s="16">
+        <v>10800</v>
+      </c>
+      <c r="S29" s="19">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="E30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="F30" s="29">
+        <v>16800</v>
+      </c>
+      <c r="G30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="H30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="I30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="J30" s="16">
+        <v>16800</v>
+      </c>
+      <c r="K30" s="16">
+        <v>12000</v>
+      </c>
+      <c r="L30" s="16">
+        <v>12000</v>
+      </c>
+      <c r="M30" s="16">
+        <v>12000</v>
+      </c>
+      <c r="N30" s="16">
+        <v>10800</v>
+      </c>
+      <c r="O30" s="16">
+        <v>10800</v>
+      </c>
+      <c r="P30" s="16">
+        <v>10800</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>10800</v>
+      </c>
+      <c r="R30" s="16">
+        <v>10800</v>
+      </c>
+      <c r="S30" s="19">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="E31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="F31" s="29">
+        <v>14400</v>
+      </c>
+      <c r="G31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="H31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="I31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="J31" s="16">
+        <v>14400</v>
+      </c>
+      <c r="K31" s="16">
+        <v>10800</v>
+      </c>
+      <c r="L31" s="16">
+        <v>10800</v>
+      </c>
+      <c r="M31" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N31" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O31" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P31" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>9600</v>
+      </c>
+      <c r="R31" s="16">
+        <v>9600</v>
+      </c>
+      <c r="S31" s="19">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="16">
+        <v>14400</v>
+      </c>
+      <c r="E32" s="16">
+        <v>14400</v>
+      </c>
+      <c r="F32" s="29">
+        <v>14400</v>
+      </c>
+      <c r="G32" s="16">
+        <v>14400</v>
+      </c>
+      <c r="H32" s="16">
+        <v>14400</v>
+      </c>
+      <c r="I32" s="16">
+        <v>14400</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16">
+        <v>10800</v>
+      </c>
+      <c r="M32" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N32" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O32" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P32" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="16">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="16">
+        <v>14400</v>
+      </c>
+      <c r="F33" s="29">
+        <v>14400</v>
+      </c>
+      <c r="G33" s="16">
+        <v>14400</v>
+      </c>
+      <c r="H33" s="16">
+        <v>14400</v>
+      </c>
+      <c r="I33" s="16">
+        <v>14400</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16">
+        <v>10800</v>
+      </c>
+      <c r="M33" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N33" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O33" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P33" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="G34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="H34" s="16">
+        <v>12000</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="16">
+        <v>10800</v>
+      </c>
+      <c r="M34" s="16">
+        <v>10800</v>
+      </c>
+      <c r="N34" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O34" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P34" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F35" s="16">
+        <v>12000</v>
+      </c>
+      <c r="G35" s="16">
+        <v>12000</v>
+      </c>
+      <c r="H35" s="16">
+        <v>12000</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="M35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="N35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P35" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E36" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F36" s="16">
+        <v>12000</v>
+      </c>
+      <c r="G36" s="16">
+        <v>12000</v>
+      </c>
+      <c r="H36" s="16">
+        <v>12000</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="M36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="N36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="O36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="P36" s="16">
+        <v>9600</v>
+      </c>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="22">
+        <v>10800</v>
+      </c>
+      <c r="E37" s="22">
+        <v>10800</v>
+      </c>
+      <c r="F37" s="22">
+        <v>10800</v>
+      </c>
+      <c r="G37" s="22">
+        <v>10800</v>
+      </c>
+      <c r="H37" s="22">
+        <v>10800</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="M37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="N37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="O37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="P37" s="22">
+        <v>9600</v>
+      </c>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12">
+        <v>43200</v>
+      </c>
+      <c r="F38" s="28">
+        <v>43200</v>
+      </c>
+      <c r="G38" s="12">
+        <v>43200</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="16">
+        <v>43200</v>
+      </c>
+      <c r="E39" s="16">
+        <v>43200</v>
+      </c>
+      <c r="F39" s="29">
+        <v>43200</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="E40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="F40" s="29">
+        <v>33600</v>
+      </c>
+      <c r="G40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="H40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="I40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="J40" s="16">
+        <v>33600</v>
+      </c>
+      <c r="K40" s="16">
+        <v>24000</v>
+      </c>
+      <c r="L40" s="16">
+        <v>24000</v>
+      </c>
+      <c r="M40" s="16">
+        <v>24000</v>
+      </c>
+      <c r="N40" s="16">
+        <v>21600</v>
+      </c>
+      <c r="O40" s="16">
+        <v>21600</v>
+      </c>
+      <c r="P40" s="16">
+        <v>21600</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>21600</v>
+      </c>
+      <c r="R40" s="16">
+        <v>21600</v>
+      </c>
+      <c r="S40" s="19">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="E41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="F41" s="29">
+        <v>33600</v>
+      </c>
+      <c r="G41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="H41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="I41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="J41" s="16">
+        <v>33600</v>
+      </c>
+      <c r="K41" s="16">
+        <v>24000</v>
+      </c>
+      <c r="L41" s="16">
+        <v>24000</v>
+      </c>
+      <c r="M41" s="16">
+        <v>24000</v>
+      </c>
+      <c r="N41" s="16">
+        <v>21600</v>
+      </c>
+      <c r="O41" s="16">
+        <v>21600</v>
+      </c>
+      <c r="P41" s="16">
+        <v>21600</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>21600</v>
+      </c>
+      <c r="R41" s="16">
+        <v>21600</v>
+      </c>
+      <c r="S41" s="19">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="E42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="F42" s="29">
+        <v>28800</v>
+      </c>
+      <c r="G42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="H42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="I42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="J42" s="16">
+        <v>28800</v>
+      </c>
+      <c r="K42" s="16">
+        <v>21600</v>
+      </c>
+      <c r="L42" s="16">
+        <v>21600</v>
+      </c>
+      <c r="M42" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N42" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O42" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P42" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>19200</v>
+      </c>
+      <c r="R42" s="16">
+        <v>19200</v>
+      </c>
+      <c r="S42" s="19">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="16">
+        <v>28800</v>
+      </c>
+      <c r="E43" s="16">
+        <v>28800</v>
+      </c>
+      <c r="F43" s="29">
+        <v>28800</v>
+      </c>
+      <c r="G43" s="16">
+        <v>28800</v>
+      </c>
+      <c r="H43" s="16">
+        <v>28800</v>
+      </c>
+      <c r="I43" s="16">
+        <v>28800</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="16">
+        <v>21600</v>
+      </c>
+      <c r="M43" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N43" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O43" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P43" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="16">
+        <v>28800</v>
+      </c>
+      <c r="E44" s="16">
+        <v>28800</v>
+      </c>
+      <c r="F44" s="29">
+        <v>28800</v>
+      </c>
+      <c r="G44" s="16">
+        <v>28800</v>
+      </c>
+      <c r="H44" s="16">
+        <v>28800</v>
+      </c>
+      <c r="I44" s="16">
+        <v>28800</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="16">
+        <v>21600</v>
+      </c>
+      <c r="M44" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N44" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O44" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P44" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="16">
+        <v>24000</v>
+      </c>
+      <c r="E45" s="16">
+        <v>24000</v>
+      </c>
+      <c r="F45" s="16">
+        <v>24000</v>
+      </c>
+      <c r="G45" s="16">
+        <v>24000</v>
+      </c>
+      <c r="H45" s="16">
+        <v>24000</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16">
+        <v>21600</v>
+      </c>
+      <c r="M45" s="16">
+        <v>21600</v>
+      </c>
+      <c r="N45" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O45" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P45" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="16">
+        <v>24000</v>
+      </c>
+      <c r="E46" s="16">
+        <v>24000</v>
+      </c>
+      <c r="F46" s="16">
+        <v>24000</v>
+      </c>
+      <c r="G46" s="16">
+        <v>24000</v>
+      </c>
+      <c r="H46" s="16">
+        <v>24000</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="M46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="N46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P46" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="16">
+        <v>24000</v>
+      </c>
+      <c r="E47" s="16">
+        <v>24000</v>
+      </c>
+      <c r="F47" s="16">
+        <v>24000</v>
+      </c>
+      <c r="G47" s="16">
+        <v>24000</v>
+      </c>
+      <c r="H47" s="16">
+        <v>24000</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="M47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="N47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="O47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="P47" s="16">
+        <v>19200</v>
+      </c>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+    </row>
+    <row r="48" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="22">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="22">
+        <v>21600</v>
+      </c>
+      <c r="F48" s="22">
+        <v>21600</v>
+      </c>
+      <c r="G48" s="22">
+        <v>21600</v>
+      </c>
+      <c r="H48" s="22">
+        <v>21600</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="M48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="N48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="O48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="P48" s="22">
+        <v>19200</v>
+      </c>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>Physics</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>ICSE / CBSE VIII</t>
   </si>
+  <si>
+    <t>&gt; 40</t>
+  </si>
 </sst>
 </file>
 
@@ -593,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -682,34 +685,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,6 +717,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,15 +1081,15 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1092,7 +1098,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1101,7 +1107,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1110,7 +1116,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1119,7 +1125,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1128,7 +1134,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1137,7 +1143,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1146,7 +1152,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1155,18 +1161,18 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1175,7 +1181,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1184,29 +1190,29 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1215,18 +1221,18 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1235,18 +1241,18 @@
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1276,300 +1282,300 @@
   </sheetPr>
   <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D31"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="22.42578125" style="1"/>
+    <col min="1" max="1" width="22.44140625" style="1"/>
+    <col min="2" max="2" width="43.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="22.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="30">
         <v>36000</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="45" t="s">
+    <row r="4" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="30">
         <v>36000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="46" t="s">
+    <row r="5" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="31">
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="46" t="s">
+    <row r="6" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="31">
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="46" t="s">
+    <row r="7" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="31">
         <v>24000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="46" t="s">
+    <row r="8" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="46" t="s">
+    <row r="9" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="31">
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="47" t="s">
+    <row r="10" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="32">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="33">
         <v>18000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="46" t="s">
+    <row r="12" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="31">
         <v>14000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="46" t="s">
+    <row r="13" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="31">
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="46" t="s">
+    <row r="14" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="31">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="46" t="s">
+    <row r="15" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="31">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="46" t="s">
+    <row r="16" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="31">
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="47" t="s">
+    <row r="17" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
+      <c r="C17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="32">
         <v>9000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="33">
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="46" t="s">
+    <row r="19" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="31">
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46" t="s">
+    <row r="20" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="31">
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="46" t="s">
+    <row r="21" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="31">
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="46" t="s">
+    <row r="22" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="31">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="46" t="s">
+    <row r="23" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="31">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="47" t="s">
+    <row r="24" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="32">
         <v>4500</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="33">
         <v>4500</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="46" t="s">
+    <row r="26" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="31">
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="46" t="s">
+    <row r="27" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+      <c r="C27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="46" t="s">
+    <row r="28" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+      <c r="C28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="46" t="s">
+    <row r="29" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B29" s="44"/>
+      <c r="C29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="31">
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="46" t="s">
+    <row r="30" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
+      <c r="C30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="31">
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
-      <c r="C31" s="47" t="s">
+    <row r="31" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="45"/>
+      <c r="C31" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="32">
         <v>2250</v>
       </c>
     </row>
@@ -1590,39 +1596,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S47"/>
+  <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:S3"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3:V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="14.7109375" style="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="14.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1678,27 +1684,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -2134,7 +2140,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="18"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>24</v>
@@ -2610,7 +2616,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
         <v>24</v>
@@ -2960,7 +2966,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
         <v>20</v>
@@ -3002,7 +3008,7 @@
       <c r="R33" s="17"/>
       <c r="S33" s="18"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="15" t="s">
         <v>22</v>
@@ -3044,7 +3050,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>23</v>
@@ -3086,7 +3092,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
         <v>24</v>
@@ -3128,9 +3134,9 @@
       <c r="R36" s="23"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>14</v>
@@ -3158,7 +3164,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="15" t="s">
         <v>15</v>
@@ -3186,7 +3192,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="15" t="s">
         <v>16</v>
@@ -3240,7 +3246,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="15" t="s">
         <v>17</v>
@@ -3293,8 +3299,9 @@
       <c r="S40" s="19">
         <v>18000</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V40" s="49"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
       <c r="C41" s="15" t="s">
         <v>18</v>
@@ -3348,7 +3355,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="15" t="s">
         <v>21</v>
@@ -3392,7 +3399,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="15" t="s">
         <v>19</v>
@@ -3436,7 +3443,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
       <c r="C44" s="15" t="s">
         <v>20</v>
@@ -3478,7 +3485,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="15" t="s">
         <v>22</v>
@@ -3520,7 +3527,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="15" t="s">
         <v>23</v>
@@ -3562,7 +3569,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
         <v>24</v>
@@ -3627,30 +3634,30 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1"/>
-    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -3673,7 +3680,7 @@
       <c r="R2" s="26"/>
       <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4185,7 +4192,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="18"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
         <v>24</v>
@@ -4661,7 +4668,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
         <v>24</v>
@@ -5137,7 +5144,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
         <v>24</v>
@@ -5613,7 +5620,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
         <v>24</v>

--- a/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
+++ b/Offline/TeacherRecruitment/Teacher Payment Slabs.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5856" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
     <sheet name="Average Teacher Math Physics" sheetId="6" r:id="rId2"/>
     <sheet name="Average Teacher" sheetId="1" r:id="rId3"/>
-    <sheet name="Premium Teacher" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Premium Teacher" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
   <si>
     <t>Physics</t>
   </si>
@@ -176,6 +177,21 @@
   <si>
     <t>&gt; 40</t>
   </si>
+  <si>
+    <t>ISC, CBSE, WB XI XII only</t>
+  </si>
+  <si>
+    <t>IIT JEE Mains &amp; Advance &amp; boards</t>
+  </si>
+  <si>
+    <t>All boards IX X</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -592,11 +608,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -718,6 +779,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -742,7 +806,31 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,13 +1251,13 @@
     </row>
     <row r="10" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1192,24 +1280,24 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1223,13 +1311,13 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1243,13 +1331,13 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1311,7 +1399,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -1322,7 +1410,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="37" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1419,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="38" t="s">
         <v>45</v>
       </c>
@@ -1340,7 +1428,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="38" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1437,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="38" t="s">
         <v>46</v>
       </c>
@@ -1358,7 +1446,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1455,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="38" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1464,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="39" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1473,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -1396,7 +1484,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="38" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1493,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="38" t="s">
         <v>18</v>
       </c>
@@ -1414,7 +1502,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="38" t="s">
         <v>46</v>
       </c>
@@ -1423,7 +1511,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="38" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1520,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="38" t="s">
         <v>47</v>
       </c>
@@ -1441,7 +1529,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="39" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1538,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="40" t="s">
@@ -1461,7 +1549,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="38" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1558,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="38" t="s">
         <v>18</v>
       </c>
@@ -1479,7 +1567,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="38" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1576,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="38" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1585,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="38" t="s">
         <v>22</v>
       </c>
@@ -1506,7 +1594,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="39" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1603,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -1526,7 +1614,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="38" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1623,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="38" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1632,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="38" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1641,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="38" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1650,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="38" t="s">
         <v>22</v>
       </c>
@@ -1571,7 +1659,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="19.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="39" t="s">
         <v>24</v>
       </c>
@@ -1598,11 +1686,11 @@
   </sheetPr>
   <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3:V52"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1685,26 +1773,26 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -3299,7 +3387,7 @@
       <c r="S40" s="19">
         <v>18000</v>
       </c>
-      <c r="V40" s="49"/>
+      <c r="V40" s="41"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14"/>
@@ -3621,6 +3709,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="55">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="54"/>
+      <c r="C4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="55">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="54"/>
+      <c r="C5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="55">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="55">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
+      <c r="C7" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="55">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="54"/>
+      <c r="C8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="55">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="55">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="54"/>
+      <c r="C10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="55">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="54"/>
+      <c r="C11" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="55">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="55">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="54"/>
+      <c r="C13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="55">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="58">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
